--- a/ar_data_from_en.xlsx
+++ b/ar_data_from_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Documents/GitHub/TranslatedReadMe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA95FC-635A-224D-8CAE-A55BE6227743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95813444-E8FA-6647-AD7A-E03FC633128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5240" yWindow="880" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" الورقة1" sheetId="1" r:id="rId1"/>
@@ -27,898 +27,898 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
-    <t>جملة</t>
-  </si>
-  <si>
-    <t> تقييم</t>
-  </si>
-  <si>
-    <t> تربط قاعدة التسعير هذه علامة السعر على تكلفة الإنتاج (P - MC) بمرونة الطلب السعرية.</t>
-  </si>
-  <si>
-    <t> تعكس مرونة العرض السعرية المتقاطعة مدى استجابة العرض من سلعة واحدة، مع الأخذ في الاعتبار التغير في سعر سلعة أخرى.</t>
-  </si>
-  <si>
-    <t> المكملات في الإنتاج هي السلع التي يتم إنتاجها معًا بنسبة ثابتة.</t>
-  </si>
-  <si>
-    <t> إذا تم تحديد سقف السعر عند P'، فسيتم العثور على كمية التوازن عند الحد الأدنى للكمية المطلوبة والكمية المعروضة، كما في المعادلة 2.1.</t>
-  </si>
-  <si>
-    <t> تتم زراعة حصة كبيرة من الحمضيات في الولايات المتحدة في فلوريدا وكاليفورنيا.</t>
-  </si>
-  <si>
-    <t> الاسترجاع: عملية استرجاع أو إعادة تنشيط الذكريات التي تم تخزينها بعيدًا</t>
-  </si>
-  <si>
-    <t> حدد إريكسون ثماني مراحل، تمثل كل منها صراعًا أو مهمة تنموية.</t>
-  </si>
-  <si>
-    <t> أعتقد أن شعبية حركة الشريط الوردي تأتي من خلال تسويق محدد يعتمد على حقيقة أننا، كثقافة، مهووسون بأجساد النساء.</t>
+    <t>تربط قاعدة التسعير هذه علامة السعر على تكلفة الإنتاج (P - MC) بمرونة الطلب السعرية.</t>
+  </si>
+  <si>
+    <t>تعكس مرونة العرض السعرية المتقاطعة مدى استجابة العرض من سلعة واحدة، مع الأخذ في الاعتبار التغير في سعر سلعة أخرى.</t>
+  </si>
+  <si>
+    <t>المكملات في الإنتاج هي السلع التي يتم إنتاجها معًا بنسبة ثابتة.</t>
+  </si>
+  <si>
+    <t>إذا تم تحديد سقف السعر عند P'، فسيتم العثور على كمية التوازن عند الحد الأدنى للكمية المطلوبة والكمية المعروضة، كما في المعادلة 2.1.</t>
+  </si>
+  <si>
+    <t>تتم زراعة حصة كبيرة من الحمضيات في الولايات المتحدة في فلوريدا وكاليفورنيا.</t>
+  </si>
+  <si>
+    <t>الاسترجاع: عملية استرجاع أو إعادة تنشيط الذكريات التي تم تخزينها بعيدًا</t>
+  </si>
+  <si>
+    <t>حدد إريكسون ثماني مراحل، تمثل كل منها صراعًا أو مهمة تنموية.</t>
+  </si>
+  <si>
+    <t>أعتقد أن شعبية حركة الشريط الوردي تأتي من خلال تسويق محدد يعتمد على حقيقة أننا، كثقافة، مهووسون بأجساد النساء.</t>
   </si>
   <si>
     <t>تكشف هذه النتائج المبهرة عن قوة إعادة التموضع عندما يتم التعامل معها بشكل جيد.</t>
   </si>
   <si>
-    <t> الدخل التقديري: يمثل الدخل التقديري مقدار الأموال المتبقية لدينا للاستثمار أو الادخار أو الإنفاق، بعد دفع ضرائب الدخل الشخصي والضروريات.</t>
-  </si>
-  <si>
-    <t> يعرض الجانب الأيمن النتيجة بعد أن كتب المهاجم كود القشرة إلى المخزن المؤقت، ومن خلال تجاوز السعة، قام أيضًا بالكتابة فوق حقل عنوان الإرجاع الموجود على المكدس بحيث يشير الآن إلى كود القشرة.</t>
-  </si>
-  <si>
-    <t> غالبًا ما يكون الكم عددًا من البايتات بحجم شبكة MTU على الأقل؛ في هذه الحالة، سيتم السماح لكل قائمة انتظار فرعية بإرسال حزمة واحدة على الأقل في كل جولة.</t>
-  </si>
-  <si>
-    <t> ثم يسمح بالإرسال بهذا المعدل؛ أي أن TFRC يعتمد على المعدل وليس على النافذة.</t>
-  </si>
-  <si>
-    <t> يتم وضع علامة على حركة المرور في اتجاه المصب (في CMTS أو حتى في أعلى الشبكة) إذا كان استخدام المستخدم في اتجاه المصب مرتفعًا؛ يتم وضع علامة على حركة المرور المنبع عند اتصال المستخدم بالشبكة إذا كان الاستخدام المنبع مرتفعًا</t>
+    <t>الدخل التقديري: يمثل الدخل التقديري مقدار الأموال المتبقية لدينا للاستثمار أو الادخار أو الإنفاق، بعد دفع ضرائب الدخل الشخصي والضروريات.</t>
+  </si>
+  <si>
+    <t>يعرض الجانب الأيمن النتيجة بعد أن كتب المهاجم كود القشرة إلى المخزن المؤقت، ومن خلال تجاوز السعة، قام أيضًا بالكتابة فوق حقل عنوان الإرجاع الموجود على المكدس بحيث يشير الآن إلى كود القشرة.</t>
+  </si>
+  <si>
+    <t>غالبًا ما يكون الكم عددًا من البايتات بحجم شبكة MTU على الأقل؛ في هذه الحالة، سيتم السماح لكل قائمة انتظار فرعية بإرسال حزمة واحدة على الأقل في كل جولة.</t>
+  </si>
+  <si>
+    <t>ثم يسمح بالإرسال بهذا المعدل؛ أي أن TFRC يعتمد على المعدل وليس على النافذة.</t>
+  </si>
+  <si>
+    <t>يتم وضع علامة على حركة المرور في اتجاه المصب (في CMTS أو حتى في أعلى الشبكة) إذا كان استخدام المستخدم في اتجاه المصب مرتفعًا؛ يتم وضع علامة على حركة المرور المنبع عند اتصال المستخدم بالشبكة إذا كان الاستخدام المنبع مرتفعًا</t>
   </si>
   <si>
     <t>هناك نوعان من بروتوكولات حالة الارتباط المحددة: بروتوكول IETF المفتوح الأقصر مسارًا أولاً ( OSPF ,RFC 2328 )، وأنظمة OSI الوسيطة للأنظمة الوسيطة ( IS-IS، الموثقة بشكل غير رسمي في RFC 1142 )</t>
   </si>
   <si>
-    <t> علم النفس القانوني هو مجال ذو توجه بحثي يضم باحثين من عدة مجالات مختلفة في علم النفس (على الرغم من أن علماء النفس الاجتماعي هم نموذجيون)</t>
-  </si>
-  <si>
-    <t> الاستشارة علم النفس الإرشادي هو تخصص في علم النفس يسهل الأداء الشخصي والشخصي طوال الحياة مع التركيز على الاهتمامات العاطفية والاجتماعية والمهنية والتعليمية والمتعلقة بالصحة والتنموية والتنظيمية.</t>
-  </si>
-  <si>
-    <t> هم الأنسجة الأساسية وعنصر الجهاز العصبي</t>
-  </si>
-  <si>
-    <t> يرتبط العلم المعرفي ارتباطًا وثيقًا بعلم النفس المعرفي، ولكنه يختلف في بعض طرق البحث المستخدمة، ويركز بشكل أكبر قليلاً على تفسير الظواهر العقلية من حيث السلوك والمعالجة العصبية.</t>
+    <t>علم النفس القانوني هو مجال ذو توجه بحثي يضم باحثين من عدة مجالات مختلفة في علم النفس (على الرغم من أن علماء النفس الاجتماعي هم نموذجيون)</t>
+  </si>
+  <si>
+    <t>الاستشارة علم النفس الإرشادي هو تخصص في علم النفس يسهل الأداء الشخصي والشخصي طوال الحياة مع التركيز على الاهتمامات العاطفية والاجتماعية والمهنية والتعليمية والمتعلقة بالصحة والتنموية والتنظيمية.</t>
+  </si>
+  <si>
+    <t>هم الأنسجة الأساسية وعنصر الجهاز العصبي</t>
+  </si>
+  <si>
+    <t>يرتبط العلم المعرفي ارتباطًا وثيقًا بعلم النفس المعرفي، ولكنه يختلف في بعض طرق البحث المستخدمة، ويركز بشكل أكبر قليلاً على تفسير الظواهر العقلية من حيث السلوك والمعالجة العصبية.</t>
   </si>
   <si>
     <t>كما أدى ظهور تكنولوجيا الكمبيوتر إلى تعزيز استعارة الوظيفة العقلية باعتبارها معالجة المعلومات.</t>
   </si>
   <si>
-    <t> تشير بالونات الكلام إلى الحوار (أو الفكر، في حالة بالونات الفكر)، مع توجيه ذيولها نحو المتحدثين المعنيين.</t>
-  </si>
-  <si>
-    <t> قدم التصوير الفوتوغرافي بديلاً للرسم كوسيلة لتمثيل الظواهر البصرية بدقة، ولم يتم التركيز على ممارسة الرسم التقليدية باعتبارها مهارة أساسية للفنانين، وخاصة في المجتمع الغربي.</t>
-  </si>
-  <si>
-    <t> منذ ذلك الحين، هيمن التصوير الفوتوغرافي الملون على التصوير الفوتوغرافي الشائع، على الرغم من استمرار استخدام اللونين الأسود والأبيض، حيث أن تطويرهما أسهل من اللون.</t>
-  </si>
-  <si>
-    <t> ويكره عند المسلمين أداء الصلاة في مكان مزين بالصور.</t>
-  </si>
-  <si>
-    <t> عندما يتم رسم كل من واجهات وجوانب المبنى، فإن الخطوط المتوازية التي تشكل جانبًا تتلاقى عند نقطة ثانية على طول الأفق (والتي قد تكون خارج ورقة الرسم).</t>
-  </si>
-  <si>
-    <t> الجغرافيا الفنية هي أحدث الفروع المعترف بها.</t>
+    <t>تشير بالونات الكلام إلى الحوار (أو الفكر، في حالة بالونات الفكر)، مع توجيه ذيولها نحو المتحدثين المعنيين.</t>
+  </si>
+  <si>
+    <t>قدم التصوير الفوتوغرافي بديلاً للرسم كوسيلة لتمثيل الظواهر البصرية بدقة، ولم يتم التركيز على ممارسة الرسم التقليدية باعتبارها مهارة أساسية للفنانين، وخاصة في المجتمع الغربي.</t>
+  </si>
+  <si>
+    <t>منذ ذلك الحين، هيمن التصوير الفوتوغرافي الملون على التصوير الفوتوغرافي الشائع، على الرغم من استمرار استخدام اللونين الأسود والأبيض، حيث أن تطويرهما أسهل من اللون.</t>
+  </si>
+  <si>
+    <t>ويكره عند المسلمين أداء الصلاة في مكان مزين بالصور.</t>
+  </si>
+  <si>
+    <t>عندما يتم رسم كل من واجهات وجوانب المبنى، فإن الخطوط المتوازية التي تشكل جانبًا تتلاقى عند نقطة ثانية على طول الأفق (والتي قد تكون خارج ورقة الرسم).</t>
+  </si>
+  <si>
+    <t>الجغرافيا الفنية هي أحدث الفروع المعترف بها.</t>
   </si>
   <si>
     <t>في السنوات الأولى من الألفية الجديدة، أحدثت ثلاثة تطورات تكنولوجية رئيسية تحولًا في رسم الخرائط: إزالة التوفر الانتقائي في نظام تحديد المواقع العالمي (GPS) في مايو 2000، مما أدى إلى تحسين دقة تحديد الموقع لأجهزة استقبال نظام تحديد المواقع العالمي (GPS) المخصصة للمستهلكين إلى مسافة بضعة أمتار؛ واختراع OpenStreetMap في عام 2004، وهي خريطة رقمية عالمية مضادة تسمح لأي شخص بالمساهمة واستخدام البيانات المكانية الجديدة دون اتفاقيات ترخيص معقدة؛ وإطلاق برنامج Google Earth في عام 2005 كتطوير للكرة الأرضية الافتراضية EarthViewer 3D (2004)، والتي أحدثت ثورة في الوصول إلى الصور الفضائية والصور الجوية.</t>
   </si>
   <si>
-    <t> مع ظهور الإنترنت ورسم الخرائط على شبكة الإنترنت، أصبحت التقنيات متاحة بسهولة لإنشاء وتوزيع الخرائط من قبل الأشخاص دون التدريب المناسب على رسم الخرائط.</t>
-  </si>
-  <si>
-    <t> يجب وضع صورة الخريطة على الصفحة (سواء كانت ورقية أو ويب أو وسائط أخرى)، بالإضافة إلى العناصر ذات الصلة، مثل العنوان ووسيلة الإيضاح والخرائط الإضافية والنص والصور وما إلى ذلك.</t>
+    <t>مع ظهور الإنترنت ورسم الخرائط على شبكة الإنترنت، أصبحت التقنيات متاحة بسهولة لإنشاء وتوزيع الخرائط من قبل الأشخاص دون التدريب المناسب على رسم الخرائط.</t>
+  </si>
+  <si>
+    <t>يجب وضع صورة الخريطة على الصفحة (سواء كانت ورقية أو ويب أو وسائط أخرى)، بالإضافة إلى العناصر ذات الصلة، مثل العنوان ووسيلة الإيضاح والخرائط الإضافية والنص والصور وما إلى ذلك.</t>
   </si>
   <si>
     <t>في عام 2008، تم اقتراح مدونة دولية لتسمية المناطق للجغرافيا الحيوية.</t>
   </si>
   <si>
-    <t> يُقال إن المدخنين الشرهين يحرقون 200 سعرة حرارية في اليوم أكثر من غير المدخنين الذين يتناولون نفس النظام الغذائي.</t>
-  </si>
-  <si>
-    <t> تتجه الحدود العمرية لطب الأطفال في جميع أنحاء العالم إلى الارتفاع عامًا بعد عام.</t>
-  </si>
-  <si>
-    <t> ويزداد في الحالات التي يكون فيها الشخص قد خفض مناعته ضد العدوى.</t>
-  </si>
-  <si>
-    <t> سوف يستخدم احتياطيات الطاقة المخزنة حتى يتم استنفادها، ثم يقوم بعد ذلك بتفكيك كتلة جسمه للحصول على طاقة إضافية.</t>
-  </si>
-  <si>
-    <t> تشمل إجراءات النظافة سحب الزيت وكشط اللسان.</t>
-  </si>
-  <si>
-    <t> يدين تشين شي هوانغ، الإمبراطور الأول لسلالة تشين (221-207 قبل الميلاد)، بالكثير من نجاحه في توحيد جنوب الصين للقوة البحرية، على الرغم من عدم إنشاء قوة بحرية رسمية بعد (انظر قسم آسيا في العصور الوسطى أدناه).</t>
-  </si>
-  <si>
-    <t> وفي مشاهد أخرى في أماكن أخرى، يرتدي الرجال أغطية للرأس وحلي للركبة لكنهم يتقاتلون عراة.</t>
+    <t>يُقال إن المدخنين الشرهين يحرقون 200 سعرة حرارية في اليوم أكثر من غير المدخنين الذين يتناولون نفس النظام الغذائي.</t>
+  </si>
+  <si>
+    <t>تتجه الحدود العمرية لطب الأطفال في جميع أنحاء العالم إلى الارتفاع عامًا بعد عام.</t>
+  </si>
+  <si>
+    <t>ويزداد في الحالات التي يكون فيها الشخص قد خفض مناعته ضد العدوى.</t>
+  </si>
+  <si>
+    <t>سوف يستخدم احتياطيات الطاقة المخزنة حتى يتم استنفادها، ثم يقوم بعد ذلك بتفكيك كتلة جسمه للحصول على طاقة إضافية.</t>
+  </si>
+  <si>
+    <t>تشمل إجراءات النظافة سحب الزيت وكشط اللسان.</t>
+  </si>
+  <si>
+    <t>يدين تشين شي هوانغ، الإمبراطور الأول لسلالة تشين (221-207 قبل الميلاد)، بالكثير من نجاحه في توحيد جنوب الصين للقوة البحرية، على الرغم من عدم إنشاء قوة بحرية رسمية بعد (انظر قسم آسيا في العصور الوسطى أدناه).</t>
+  </si>
+  <si>
+    <t>وفي مشاهد أخرى في أماكن أخرى، يرتدي الرجال أغطية للرأس وحلي للركبة لكنهم يتقاتلون عراة.</t>
   </si>
   <si>
     <t>نظرًا للحاجة المتزايدة إلى محطات الحصاد والمعالجة، أصبحت المصنوعات الحجرية المطحونة والحجرية المصقولة أكثر انتشارًا، بما في ذلك أدوات الطحن والقطع والتقطيع.</t>
   </si>
   <si>
-    <t> واستولوا على الصين وبلاد فارس وتركستان وروسيا.</t>
-  </si>
-  <si>
-    <t> وبحلول عام 653 قبل الميلاد، تمكن الملك الصاوي بسماتيك الأول من طرد الآشوريين بمساعدة المرتزقة اليونانيين، الذين تم تجنيدهم لتشكيل أول بحرية مصرية.</t>
-  </si>
-  <si>
-    <t> تسمى التسلسلات التي لا تميل إلى اللانهاية بحدود.</t>
-  </si>
-  <si>
-    <t> يحتوي الحد الموحد على خصائص "أجمل" من الحد النقطي.</t>
-  </si>
-  <si>
-    <t> المعادلة التفاضلية الجزئية العشوائية (SPDE) هي معادلة تعمل على تعميم المعادلات التفاضلية الجزئية لتشمل عمليات ضوضاء الزمكان، مع تطبيقات في نظرية المجال الكمي والميكانيكا الإحصائية.</t>
-  </si>
-  <si>
-    <t> ويمكن إثبات أنه يعادل التقارب المطلق.</t>
-  </si>
-  <si>
-    <t> تدوين Big O: يستخدم لوصف السلوك المحدود للدالة عندما يميل الوسيط نحو قيمة معينة أو ما لا نهاية</t>
+    <t>واستولوا على الصين وبلاد فارس وتركستان وروسيا.</t>
+  </si>
+  <si>
+    <t>وبحلول عام 653 قبل الميلاد، تمكن الملك الصاوي بسماتيك الأول من طرد الآشوريين بمساعدة المرتزقة اليونانيين، الذين تم تجنيدهم لتشكيل أول بحرية مصرية.</t>
+  </si>
+  <si>
+    <t>تسمى التسلسلات التي لا تميل إلى اللانهاية بحدود.</t>
+  </si>
+  <si>
+    <t>يحتوي الحد الموحد على خصائص "أجمل" من الحد النقطي.</t>
+  </si>
+  <si>
+    <t>المعادلة التفاضلية الجزئية العشوائية (SPDE) هي معادلة تعمل على تعميم المعادلات التفاضلية الجزئية لتشمل عمليات ضوضاء الزمكان، مع تطبيقات في نظرية المجال الكمي والميكانيكا الإحصائية.</t>
+  </si>
+  <si>
+    <t>ويمكن إثبات أنه يعادل التقارب المطلق.</t>
+  </si>
+  <si>
+    <t>تدوين Big O: يستخدم لوصف السلوك المحدود للدالة عندما يميل الوسيط نحو قيمة معينة أو ما لا نهاية</t>
   </si>
   <si>
     <t>تم تطوير استخدام القياس للسماح بتسجيل ومقارنة الملاحظات التي تم إجراؤها في أوقات وأماكن مختلفة من قبل أشخاص مختلفين.</t>
   </si>
   <si>
-    <t> تحتوي الخلايا حقيقية النواة أيضًا على هيكل خلوي يتكون من الأنابيب الدقيقة والخيوط الوسيطة والخيوط الدقيقة، والتي توفر جميعها الدعم للخلية وتشارك في حركة الخلية وعضياتها.</t>
-  </si>
-  <si>
-    <t> وبالتالي، يمكن لشخصين أن ينظرا إلى نفس الحدث ويخرجان بتصورات مختلفة تمامًا عنه، حتى أنهما يختلفان حول حقائق بسيطة.</t>
-  </si>
-  <si>
-    <t> بعض الحيوانات قادرة على التكاثر اللاجنسي، مما يؤدي غالبًا إلى استنساخ وراثي للوالد.</t>
-  </si>
-  <si>
-    <t> ومع ذلك، حتى باستخدام هذه الأساليب المحسنة، فإن العدد الإجمالي للأنواع البكتيرية غير معروف ولا يمكن حتى تقديره بأي قدر من اليقين.</t>
-  </si>
-  <si>
-    <t> وقال هوك أيضًا إن الإنسانيين يدعمون القضاء على الجوع وتحسين الصحة والإسكان والتعليم.</t>
+    <t>تحتوي الخلايا حقيقية النواة أيضًا على هيكل خلوي يتكون من الأنابيب الدقيقة والخيوط الوسيطة والخيوط الدقيقة، والتي توفر جميعها الدعم للخلية وتشارك في حركة الخلية وعضياتها.</t>
+  </si>
+  <si>
+    <t>وبالتالي، يمكن لشخصين أن ينظرا إلى نفس الحدث ويخرجان بتصورات مختلفة تمامًا عنه، حتى أنهما يختلفان حول حقائق بسيطة.</t>
+  </si>
+  <si>
+    <t>بعض الحيوانات قادرة على التكاثر اللاجنسي، مما يؤدي غالبًا إلى استنساخ وراثي للوالد.</t>
+  </si>
+  <si>
+    <t>ومع ذلك، حتى باستخدام هذه الأساليب المحسنة، فإن العدد الإجمالي للأنواع البكتيرية غير معروف ولا يمكن حتى تقديره بأي قدر من اليقين.</t>
+  </si>
+  <si>
+    <t>وقال هوك أيضًا إن الإنسانيين يدعمون القضاء على الجوع وتحسين الصحة والإسكان والتعليم.</t>
   </si>
   <si>
     <t>يتعارض هذا الرأي مع كل من الأيديولوجيات الإصلاحية واللينينية الشيوعية، التي تؤكد على التوالي على الحكومة البرلمانية والمؤسسية من خلال تطبيق الإصلاحات الاجتماعية من ناحية، والأحزاب الطليعية والمركزية الديمقراطية التشاركية من ناحية أخرى.</t>
   </si>
   <si>
-    <t> الفاشية هي عمدا وبشكل كامل غير ديمقراطية ومعادية للديمقراطية.</t>
-  </si>
-  <si>
-    <t> مع الديانات المصرية والهندية وبلاد ما بين النهرين والسودانية، والديانة الهندو أوروبية البدائية المعاد بناؤها، وغيرها، كان للملك وظائف مقدسة مرتبطة مباشرة بالتضحية، وكان يتم تعريفه أحيانًا على أنه ذو أصل إلهي، مما قد يؤسس لمفهوم الحق الإلهي للملوك.</t>
-  </si>
-  <si>
-    <t> يتم انتقاد التقديرات الأعلى لأنها تستند إلى بيانات متفرقة وغير كاملة عندما تكون الأخطاء الجسيمة حتمية، وتميل إلى قيم أعلى محتملة، ولا ينبغي إدراج ضحايا الحروب الأهلية، والمجاعة الكبرى وغيرها من المجاعات، والأحداث المرتبطة بالحرب.</t>
+    <t>الفاشية هي عمدا وبشكل كامل غير ديمقراطية ومعادية للديمقراطية.</t>
+  </si>
+  <si>
+    <t>مع الديانات المصرية والهندية وبلاد ما بين النهرين والسودانية، والديانة الهندو أوروبية البدائية المعاد بناؤها، وغيرها، كان للملك وظائف مقدسة مرتبطة مباشرة بالتضحية، وكان يتم تعريفه أحيانًا على أنه ذو أصل إلهي، مما قد يؤسس لمفهوم الحق الإلهي للملوك.</t>
+  </si>
+  <si>
+    <t>يتم انتقاد التقديرات الأعلى لأنها تستند إلى بيانات متفرقة وغير كاملة عندما تكون الأخطاء الجسيمة حتمية، وتميل إلى قيم أعلى محتملة، ولا ينبغي إدراج ضحايا الحروب الأهلية، والمجاعة الكبرى وغيرها من المجاعات، والأحداث المرتبطة بالحرب.</t>
   </si>
   <si>
     <t>تنظيم المعرفة: لقد كانت تطبيقات فهم علم النفس المعرفي لكيفية تنظيم المعرفة في الدماغ محورًا رئيسيًا في مجال التعليم في السنوات الأخيرة.</t>
   </si>
   <si>
-    <t> يتراوح الوصول إلى الذاكرة الدلالية من جهد طفيف إلى جهد كبير، اعتمادًا على عدد من المتغيرات بما في ذلك على سبيل المثال لا الحصر، حداثة تشفير المعلومات، وعدد الارتباطات التي تربطها بالمعلومات الأخرى، وتكرار الوصول، ومستويات المعنى (مدى عمقها). تمت معالجتها عندما تم ترميزها).</t>
-  </si>
-  <si>
-    <t> لقد كان هذا المنظور ضمنيًا في الوضعية الاجتماعية الأصلية لكونت، ولكن تم تنظيره بالكامل بواسطة دوركهايم، ومرة أخرى فيما يتعلق بالقوانين البنيوية التي يمكن ملاحظتها.</t>
-  </si>
-  <si>
-    <t> يرتبط هذا النهج في المقام الأول بمايكل بوراوي الذي قارنه بعلم الاجتماع المهني، وهو شكل من أشكال علم الاجتماع الأكاديمي الذي يهتم في المقام الأول بمخاطبة علماء الاجتماع المحترفين الآخرين.</t>
+    <t>يتراوح الوصول إلى الذاكرة الدلالية من جهد طفيف إلى جهد كبير، اعتمادًا على عدد من المتغيرات بما في ذلك على سبيل المثال لا الحصر، حداثة تشفير المعلومات، وعدد الارتباطات التي تربطها بالمعلومات الأخرى، وتكرار الوصول، ومستويات المعنى (مدى عمقها). تمت معالجتها عندما تم ترميزها).</t>
+  </si>
+  <si>
+    <t>لقد كان هذا المنظور ضمنيًا في الوضعية الاجتماعية الأصلية لكونت، ولكن تم تنظيره بالكامل بواسطة دوركهايم، ومرة أخرى فيما يتعلق بالقوانين البنيوية التي يمكن ملاحظتها.</t>
+  </si>
+  <si>
+    <t>يرتبط هذا النهج في المقام الأول بمايكل بوراوي الذي قارنه بعلم الاجتماع المهني، وهو شكل من أشكال علم الاجتماع الأكاديمي الذي يهتم في المقام الأول بمخاطبة علماء الاجتماع المحترفين الآخرين.</t>
   </si>
   <si>
     <t>يشمل علم اجتماع تكنولوجيا الاتصالات والمعلومات "الجوانب الاجتماعية للحوسبة، والإنترنت، والوسائط الجديدة، وشبكات الكمبيوتر، وغيرها من تقنيات الاتصالات والمعلومات."</t>
   </si>
   <si>
-    <t> يتم الوصول إلى العناصر باستخدام فهرس عدد صحيح لتحديد العنصر المطلوب.</t>
-  </si>
-  <si>
-    <t> وهذا يسهل إعادة بناء التعليمات البرمجية، على سبيل المثال السماح لمؤلف الفئة بتغيير كيفية تمثيل كائنات تلك الفئة لبياناتها داخليًا دون تغيير أي تعليمات برمجية خارجية (طالما أن استدعاءات الطريقة "العامة" تعمل بنفس الطريقة).</t>
-  </si>
-  <si>
-    <t> يحدث انقطاع التيار الكهربائي عندما يفشل العرض تمامًا.</t>
-  </si>
-  <si>
-    <t> أنتج النظام ما يصل إلى 1 كيلو واط من الطاقة عند طرف المستقبل.</t>
-  </si>
-  <si>
-    <t> في المملكة المتحدة، تبلغ تكاليف النقل حوالي 0.2 نقطة لكل كيلووات ساعة مقارنة بالسعر المحلي الذي يبلغ حوالي 10 نقاط لكل كيلووات ساعة. ويقيم البحث مستوى الإنفاق الرأسمالي في سوق معدات T&amp;D للطاقة الكهربائية بقيمة 128.9 مليار دولار في عام 2011.</t>
+    <t>يتم الوصول إلى العناصر باستخدام فهرس عدد صحيح لتحديد العنصر المطلوب.</t>
+  </si>
+  <si>
+    <t>وهذا يسهل إعادة بناء التعليمات البرمجية، على سبيل المثال السماح لمؤلف الفئة بتغيير كيفية تمثيل كائنات تلك الفئة لبياناتها داخليًا دون تغيير أي تعليمات برمجية خارجية (طالما أن استدعاءات الطريقة "العامة" تعمل بنفس الطريقة).</t>
+  </si>
+  <si>
+    <t>يحدث انقطاع التيار الكهربائي عندما يفشل العرض تمامًا.</t>
+  </si>
+  <si>
+    <t>أنتج النظام ما يصل إلى 1 كيلو واط من الطاقة عند طرف المستقبل.</t>
+  </si>
+  <si>
+    <t>في المملكة المتحدة، تبلغ تكاليف النقل حوالي 0.2 نقطة لكل كيلووات ساعة مقارنة بالسعر المحلي الذي يبلغ حوالي 10 نقاط لكل كيلووات ساعة. ويقيم البحث مستوى الإنفاق الرأسمالي في سوق معدات T&amp;D للطاقة الكهربائية بقيمة 128.9 مليار دولار في عام 2011.</t>
   </si>
   <si>
     <t>قال الصديق بحزن: "إنك تدمر كل فرصك، والوجه الذي تراه لا يستحق التضحية".</t>
   </si>
   <si>
-    <t> تم أخذ نصيحته مرة أخرى عندما كان من الضروري تحديد الخطة التي يجب أن يتعلمها أمير ويلز الشاب.</t>
-  </si>
-  <si>
-    <t> الأميرة فيكتوار ماري لويز كانت الابنة الصغرى لدوق ساكس-كوبورغ وأرملة الأمير تشارلز أمير لينينغن، الذي تركها بعد وفاته وصية على عرش إمارته.</t>
-  </si>
-  <si>
-    <t> قليل من العهود في التاريخ، إن وجدت، كانت بلا لوم مثلها، وكانت حياتها المنزلية مثالية في انسجامها وتفاني أفراد عائلتها لبعضهم البعض.</t>
+    <t>تم أخذ نصيحته مرة أخرى عندما كان من الضروري تحديد الخطة التي يجب أن يتعلمها أمير ويلز الشاب.</t>
+  </si>
+  <si>
+    <t>الأميرة فيكتوار ماري لويز كانت الابنة الصغرى لدوق ساكس-كوبورغ وأرملة الأمير تشارلز أمير لينينغن، الذي تركها بعد وفاته وصية على عرش إمارته.</t>
+  </si>
+  <si>
+    <t>قليل من العهود في التاريخ، إن وجدت، كانت بلا لوم مثلها، وكانت حياتها المنزلية مثالية في انسجامها وتفاني أفراد عائلتها لبعضهم البعض.</t>
   </si>
   <si>
     <t>الضوء الذهبي على الماء، والرخام الرمادي اللؤلؤي والملون، والأشرعة المرحة للقوادس التي تكتسح البحيرات مثل الفراشات الملونة، والامتداد الواسع من المياه الذي ينتهي بغموض الأفق البعيد - كل ذلك غرق في قلوبهم. ولم يكن من المستغرب أن يجتهدوا في رسم اللون فوق كل شيء، وأن يصلوا في النهاية إلى الكمال الذي لم يضاهيه أي مدرسة أخرى من الرسامين.</t>
   </si>
   <si>
-    <t> لقد طرت قليلاً فوق جميع أنحاء العالم؛ وصحيح أن الجغرافيا كانت مفيدة جدًا بالنسبة لي.</t>
-  </si>
-  <si>
-    <t> وكان الكوكب السادس أكبر بعشر مرات من الكوكب الأخير.</t>
-  </si>
-  <si>
-    <t> وألقيت تفسيرا معها.</t>
-  </si>
-  <si>
-    <t> عندما يرغب المرء في لعب دور الطرافة، فإنه أحيانًا يبتعد قليلاً عن الحقيقة.</t>
-  </si>
-  <si>
-    <t> ولم تتم رؤية هذا الكويكب إلا مرة واحدة من خلال التلسكوب.</t>
+    <t>لقد طرت قليلاً فوق جميع أنحاء العالم؛ وصحيح أن الجغرافيا كانت مفيدة جدًا بالنسبة لي.</t>
+  </si>
+  <si>
+    <t>وكان الكوكب السادس أكبر بعشر مرات من الكوكب الأخير.</t>
+  </si>
+  <si>
+    <t>وألقيت تفسيرا معها.</t>
+  </si>
+  <si>
+    <t>عندما يرغب المرء في لعب دور الطرافة، فإنه أحيانًا يبتعد قليلاً عن الحقيقة.</t>
+  </si>
+  <si>
+    <t>ولم تتم رؤية هذا الكويكب إلا مرة واحدة من خلال التلسكوب.</t>
   </si>
   <si>
     <t>والسؤال يجب أن يُحاكم بالأدلة الخارجية والداخلية؛ إن اللغة والنوع المادي لعرقنا يوفران بيانات معينة لتجربتها، وبيانات أخرى يوفرها أدبنا وعبقريتنا وإنتاجنا الروحي بشكل عام.</t>
   </si>
   <si>
-    <t> وسيريس، عبقري الفلك، موجود بالطبع في سيريدوين، "سيريس البريطانية، الإلهة الأركيتية التي تدخلنا إلى أعمق أسرار خرافة الأركيت".</t>
-  </si>
-  <si>
-    <t> وبعد ذلك، بالإضافة إلى معرفتنا بالعبقري السلتي، جلب لنا السيد نوريس من كورنوال، والسيد دي لا فيلماركي من بريتاني، مساهمات، ضئيلة بالفعل من حيث الكمية، إذا قارناها بكمية المواد الأيرلندية الموجودة، ولكن بعيدا عن أن تكون ضئيلة في القيمة.</t>
-  </si>
-  <si>
-    <t> قال القديس: ""وجدت كنيسة إذًا، لن تكون قريبة جدًا منا" (أي كنيسة أرماغ الخاصة به) "من أجل الألفة، ولا بعيدة جدًا عنا من أجل الجماع."</t>
+    <t>وسيريس، عبقري الفلك، موجود بالطبع في سيريدوين، "سيريس البريطانية، الإلهة الأركيتية التي تدخلنا إلى أعمق أسرار خرافة الأركيت".</t>
+  </si>
+  <si>
+    <t>وبعد ذلك، بالإضافة إلى معرفتنا بالعبقري السلتي، جلب لنا السيد نوريس من كورنوال، والسيد دي لا فيلماركي من بريتاني، مساهمات، ضئيلة بالفعل من حيث الكمية، إذا قارناها بكمية المواد الأيرلندية الموجودة، ولكن بعيدا عن أن تكون ضئيلة في القيمة.</t>
+  </si>
+  <si>
+    <t>قال القديس: ""وجدت كنيسة إذًا، لن تكون قريبة جدًا منا" (أي كنيسة أرماغ الخاصة به) "من أجل الألفة، ولا بعيدة جدًا عنا من أجل الجماع."</t>
   </si>
   <si>
     <t>ووقف بيريدور وقارن سواد الغراب، وبياض الثلج، واحمرار الدم، بشعر السيدة التي أحبها أكثر، والتي كانت أكثر سوادا من الغراب، وببشرتها، التي كانت أكثر بياضًا من الثلج، وخديها، اللذين كانا أكثر احمرارًا من الدماء على الثلج».</t>
   </si>
   <si>
-    <t> وهاتان السنتان ترتفعان كالجبلين في منتصف الطريق بين الذي قبله والذي بعده.</t>
-  </si>
-  <si>
-    <t> ولم ينطق أحد من هؤلاء الشباب بكلمة: الإمبراطور.</t>
-  </si>
-  <si>
-    <t> قال الرجل العجوز بنبرة عتاب: "هذا محظوظ جدًا".</t>
-  </si>
-  <si>
-    <t> في العمق، سنلاحظ أنه لم يكن هناك شيء في كل هذا لم يكن خطيرًا للغاية.</t>
-  </si>
-  <si>
-    <t> بوتقة يلقي فيها القدر الإنسان كلما أراد وغداً أو نصف إله.</t>
-  </si>
-  <si>
-    <t> من فضلك لا توصيني بشفرة دافنشي لأنك تعتقد أنها رائعة.</t>
-  </si>
-  <si>
-    <t> أوصي بشدة بهذه السلسلة!</t>
-  </si>
-  <si>
-    <t> الشخصيات غير محببة والقصة بطيئة للغاية... ولا شيء يجبرني على مواصلة القراءة.</t>
+    <t>وهاتان السنتان ترتفعان كالجبلين في منتصف الطريق بين الذي قبله والذي بعده.</t>
+  </si>
+  <si>
+    <t>ولم ينطق أحد من هؤلاء الشباب بكلمة: الإمبراطور.</t>
+  </si>
+  <si>
+    <t>قال الرجل العجوز بنبرة عتاب: "هذا محظوظ جدًا".</t>
+  </si>
+  <si>
+    <t>في العمق، سنلاحظ أنه لم يكن هناك شيء في كل هذا لم يكن خطيرًا للغاية.</t>
+  </si>
+  <si>
+    <t>بوتقة يلقي فيها القدر الإنسان كلما أراد وغداً أو نصف إله.</t>
+  </si>
+  <si>
+    <t>من فضلك لا توصيني بشفرة دافنشي لأنك تعتقد أنها رائعة.</t>
+  </si>
+  <si>
+    <t>أوصي بشدة بهذه السلسلة!</t>
+  </si>
+  <si>
+    <t>الشخصيات غير محببة والقصة بطيئة للغاية... ولا شيء يجبرني على مواصلة القراءة.</t>
   </si>
   <si>
     <t>في العشاء ذلك المساء في منزل أكرويد في فيرنلي بارك، كان من بين ضيوفه زوجة أخيه السيدة سيسيل أكرويد وابنتها فلورا، وصائد الطرائد الكبيرة الرائد بلانت، والسكرتير الشخصي لأكرويد جيفري ريموند، والدكتور جيمس شيبارد، الذي دعاه أكرويد في وقت سابق. ذلك اليوم.</t>
   </si>
   <si>
-    <t> نرى كيف أن أولئك الذين يقاومون الاحتلال يختلفون مع بعضهم البعض حول كيفية المقاومة.</t>
-  </si>
-  <si>
-    <t> انتهى بهم الأمر إلى تعليق حسابنا مقابل الأمور النثرية ورسوم الغرفة بأكملها مقابل إقامتنا، على الرغم من أن الغرفة قد تم دفع ثمنها بالفعل.</t>
-  </si>
-  <si>
-    <t> تناولت الطعام في عدد من المطاعم واستمتعت بمجموعة متنوعة من المأكولات.</t>
-  </si>
-  <si>
-    <t> فريق عمل رائع بالفعل.</t>
-  </si>
-  <si>
-    <t> فريق عمل ودود للغاية أثناء الإفطار. قريب جدًا من الطريق السريع، على بعد أميال قليلة من ملعب KC Royals.</t>
-  </si>
-  <si>
-    <t> لقد فاق هذا كل توقعاتنا فيما يتعلق بالخدمة والقيمة والموقع.</t>
-  </si>
-  <si>
-    <t> يطور السيناريو الأصلي الموقف والشخصيات بدقة، باستخدام ذكريات الماضي والخطوط الرائعة.</t>
+    <t>نرى كيف أن أولئك الذين يقاومون الاحتلال يختلفون مع بعضهم البعض حول كيفية المقاومة.</t>
+  </si>
+  <si>
+    <t>انتهى بهم الأمر إلى تعليق حسابنا مقابل الأمور النثرية ورسوم الغرفة بأكملها مقابل إقامتنا، على الرغم من أن الغرفة قد تم دفع ثمنها بالفعل.</t>
+  </si>
+  <si>
+    <t>تناولت الطعام في عدد من المطاعم واستمتعت بمجموعة متنوعة من المأكولات.</t>
+  </si>
+  <si>
+    <t>فريق عمل رائع بالفعل.</t>
+  </si>
+  <si>
+    <t>فريق عمل ودود للغاية أثناء الإفطار. قريب جدًا من الطريق السريع، على بعد أميال قليلة من ملعب KC Royals.</t>
+  </si>
+  <si>
+    <t>لقد فاق هذا كل توقعاتنا فيما يتعلق بالخدمة والقيمة والموقع.</t>
+  </si>
+  <si>
+    <t>يطور السيناريو الأصلي الموقف والشخصيات بدقة، باستخدام ذكريات الماضي والخطوط الرائعة.</t>
   </si>
   <si>
     <t>ثم يسحب المزيد من أجل حسن التدبير. كما أنه ليس لديه أي سبب حقيقي لتدور أحداثه في عام 1984 بخلاف العنوان و"مرحبًا بكم في Pleasuredome" للمخرج Frankie Goes to Hollywood الذي تم استخدامه في مشهد واحد.</t>
   </si>
   <si>
-    <t> على الرغم من ذلك، هنا في A Christmas Story، هذا ليس أفضل ما رأيته من إخراج كلارك فحسب، بل أعتقد أنه أفضل فيلم له أيضًا. أحب أفلام عيد الميلاد، وعلى الرغم من أن A Christmas Story ليس هو المفضل لدي على الإطلاق، أعتقد أنه يستحق ذلك تمامًا عنوانها كنز عيد الميلاد الخالد.</t>
-  </si>
-  <si>
-    <t> هذا الجزء لا يزال يعمل.</t>
-  </si>
-  <si>
-    <t> تم تصنيفه ""PG-13"" للحركة والعنف ويبلغ وقت عرضه ساعتين و31 دقيقة.</t>
-  </si>
-  <si>
-    <t> سهل الشحن، وبقي في أذني، وكان يتمتع بجودة صوت رائعة.</t>
-  </si>
-  <si>
-    <t> فقط ليست دائمة على الإطلاق.</t>
-  </si>
-  <si>
-    <t> القرص المعيب، توقف حوالي 5-10 دقائق قبل نهاية الفيلم.</t>
-  </si>
-  <si>
-    <t> إنه لا يعمل ورائحته سيئة حقًا</t>
-  </si>
-  <si>
-    <t> كانت السلطة تحتوي على الكمية المناسبة من الصلصة حتى لا تزيد من قوة الأسقلوب الذي تم طهيه تمامًا.</t>
+    <t>على الرغم من ذلك، هنا في A Christmas Story، هذا ليس أفضل ما رأيته من إخراج كلارك فحسب، بل أعتقد أنه أفضل فيلم له أيضًا. أحب أفلام عيد الميلاد، وعلى الرغم من أن A Christmas Story ليس هو المفضل لدي على الإطلاق، أعتقد أنه يستحق ذلك تمامًا عنوانها كنز عيد الميلاد الخالد.</t>
+  </si>
+  <si>
+    <t>هذا الجزء لا يزال يعمل.</t>
+  </si>
+  <si>
+    <t>تم تصنيفه ""PG-13"" للحركة والعنف ويبلغ وقت عرضه ساعتين و31 دقيقة.</t>
+  </si>
+  <si>
+    <t>سهل الشحن، وبقي في أذني، وكان يتمتع بجودة صوت رائعة.</t>
+  </si>
+  <si>
+    <t>فقط ليست دائمة على الإطلاق.</t>
+  </si>
+  <si>
+    <t>القرص المعيب، توقف حوالي 5-10 دقائق قبل نهاية الفيلم.</t>
+  </si>
+  <si>
+    <t>إنه لا يعمل ورائحته سيئة حقًا</t>
+  </si>
+  <si>
+    <t>كانت السلطة تحتوي على الكمية المناسبة من الصلصة حتى لا تزيد من قوة الأسقلوب الذي تم طهيه تمامًا.</t>
   </si>
   <si>
     <t>كان الطعام فاترًا بالكاد، لذا لا بد أنه كان جالسًا في انتظار الخادم ليُخرجه لنا.</t>
   </si>
   <si>
-    <t> إنها مثل حفلة مثيرة حقًا في فمك، حيث تغازل أكثر الأشخاص إثارة في الحفلة بشكل شنيع.</t>
-  </si>
-  <si>
-    <t> كان هذا بسبب أن الأمر استغرق 20 دقيقة للاعتراف، ثم 35 دقيقة أخرى للحصول على طعامنا... وظلوا ينسون الأشياء.</t>
-  </si>
-  <si>
-    <t> عند هذه النقطة، اكتشفت أنا وأصدقائي أن هذا المكان كان مزحة ولم نمانع في جعله معروفًا علنًا وبصوت عالٍ.</t>
-  </si>
-  <si>
-    <t> Points = bbox2points(rectangle) يحول مستطيل الإدخال المحدد بـ [ارتفاع عرض xy] إلى قائمة من أربع نقاط زاوية [xy].</t>
-  </si>
-  <si>
-    <t> y = logspace(a,b) يُنشئ متجه صف y مكون من 50 نقطة متباعدة لوغاريتميًا بين العقدين 10^a و10^b.</t>
-  </si>
-  <si>
-    <t> يجب أن يكون حجم الصف هو نفس حجم العمود.</t>
-  </si>
-  <si>
-    <t> إذا قمت بتعيين خريطة الألوان للشكل، فإن المحاور والمخططات الموجودة في الشكل تستخدم نفس خريطة الألوان.</t>
+    <t>إنها مثل حفلة مثيرة حقًا في فمك، حيث تغازل أكثر الأشخاص إثارة في الحفلة بشكل شنيع.</t>
+  </si>
+  <si>
+    <t>كان هذا بسبب أن الأمر استغرق 20 دقيقة للاعتراف، ثم 35 دقيقة أخرى للحصول على طعامنا... وظلوا ينسون الأشياء.</t>
+  </si>
+  <si>
+    <t>عند هذه النقطة، اكتشفت أنا وأصدقائي أن هذا المكان كان مزحة ولم نمانع في جعله معروفًا علنًا وبصوت عالٍ.</t>
+  </si>
+  <si>
+    <t>Points = bbox2points(rectangle) يحول مستطيل الإدخال المحدد بـ [ارتفاع عرض xy] إلى قائمة من أربع نقاط زاوية [xy].</t>
+  </si>
+  <si>
+    <t>y = logspace(a,b) يُنشئ متجه صف y مكون من 50 نقطة متباعدة لوغاريتميًا بين العقدين 10^a و10^b.</t>
+  </si>
+  <si>
+    <t>يجب أن يكون حجم الصف هو نفس حجم العمود.</t>
+  </si>
+  <si>
+    <t>إذا قمت بتعيين خريطة الألوان للشكل، فإن المحاور والمخططات الموجودة في الشكل تستخدم نفس خريطة الألوان.</t>
   </si>
   <si>
     <t>بالنسبة لمعظم تنسيقات ملفات الصور، يستخدم إمريد 8 بتات أو أقل لكل مستوى لون لتخزين وحدات بكسل الصورة.</t>
   </si>
   <si>
-    <t> للقيام بالقراءة، قم بكسر البيضة فوق كوب من الماء.</t>
-  </si>
-  <si>
-    <t> اجلس في وضع مريح وركز على نيتك في التخلص من الطاقة السلبية.</t>
-  </si>
-  <si>
-    <t> قم بأداء 12 تكرارًا في كل مجموعة.</t>
-  </si>
-  <si>
-    <t> قم بإمالة الشفرة بزاوية 45 درجة نحو الجذع وادفعها داخل اليقطين.</t>
-  </si>
-  <si>
-    <t> غالبًا ما يُطلق على هذا اسم تمرين الضغط.</t>
-  </si>
-  <si>
-    <t> يقدم ساخنا.</t>
-  </si>
-  <si>
-    <t> حركي باستمرار حتى يصبح الخليط سميكًا، لمدة 5 دقائق تقريبًا.</t>
-  </si>
-  <si>
-    <t> ضعي الغطاء على الخليط واستمري في الطهي لمدة 10 دقائق إضافية مع التحريك من حين لآخر.</t>
-  </si>
-  <si>
-    <t> قم بتبطين صينية مقاس 9 بوصة مربعة أو 13 × 9 بوصة بورق الألمنيوم بحيث يمتد الرقائق على جوانب المقلاة؛ احباط الزبدة.</t>
-  </si>
-  <si>
-    <t> ضعي مقلاة غير مدهونة بالزيت على نار متوسطة الحرارة واختبري درجة حرارة سطحها بوضع يدك فوقها.</t>
-  </si>
-  <si>
-    <t> يمكنك تكوين الاتصالات بأنواع مختلفة من شبكات Wi-Fi ونقاط الاتصال وإدارة الشبكات المحفوظة والبحث عن عناوين شبكة جهازك</t>
+    <t>للقيام بالقراءة، قم بكسر البيضة فوق كوب من الماء.</t>
+  </si>
+  <si>
+    <t>اجلس في وضع مريح وركز على نيتك في التخلص من الطاقة السلبية.</t>
+  </si>
+  <si>
+    <t>قم بأداء 12 تكرارًا في كل مجموعة.</t>
+  </si>
+  <si>
+    <t>قم بإمالة الشفرة بزاوية 45 درجة نحو الجذع وادفعها داخل اليقطين.</t>
+  </si>
+  <si>
+    <t>غالبًا ما يُطلق على هذا اسم تمرين الضغط.</t>
+  </si>
+  <si>
+    <t>يقدم ساخنا.</t>
+  </si>
+  <si>
+    <t>حركي باستمرار حتى يصبح الخليط سميكًا، لمدة 5 دقائق تقريبًا.</t>
+  </si>
+  <si>
+    <t>ضعي الغطاء على الخليط واستمري في الطهي لمدة 10 دقائق إضافية مع التحريك من حين لآخر.</t>
+  </si>
+  <si>
+    <t>قم بتبطين صينية مقاس 9 بوصة مربعة أو 13 × 9 بوصة بورق الألمنيوم بحيث يمتد الرقائق على جوانب المقلاة؛ احباط الزبدة.</t>
+  </si>
+  <si>
+    <t>ضعي مقلاة غير مدهونة بالزيت على نار متوسطة الحرارة واختبري درجة حرارة سطحها بوضع يدك فوقها.</t>
+  </si>
+  <si>
+    <t>يمكنك تكوين الاتصالات بأنواع مختلفة من شبكات Wi-Fi ونقاط الاتصال وإدارة الشبكات المحفوظة والبحث عن عناوين شبكة جهازك</t>
   </si>
   <si>
     <t>يجب أن يكون الجهاز الذي تقوم بالتحويل إليه يدعم تقنية NFC، ويجب أن يكون على مسافة أربعة سنتيمترات من جهازك</t>
   </si>
   <si>
-    <t> عرض وإدارة الملفات المخزنة على جهازك، بما في ذلك الصور ومقاطع الفيديو والموسيقى ومقاطع الصوت.</t>
-  </si>
-  <si>
-    <t> يقدم Android Auto التطبيقات الأكثر فائدة إلى شاشة جهازك أو شاشة سيارتك المتوافقة بتنسيق يسهل عليك الحفاظ على تركيزك الأساسي على القيادة.</t>
-  </si>
-  <si>
-    <t> يجب تمكين إعدادات الرقابة الأبوية لضمان عدم وصول الأطفال إلى الخدمات أو المحتوى غير المعتمد من قبل الوالدين.</t>
-  </si>
-  <si>
-    <t> يجب على أفراد المجتمع استخدام جلسات Zoom/الحضور أثناء تواجدهم في مساحة يمكنهم من خلالها التركيز وعدم تعريض أنفسهم أو الآخرين للخطر</t>
-  </si>
-  <si>
-    <t> إذا كنت تشعر أن هذه الوثيقة بحاجة إلى تعديل صياغتها، فلا تتردد في التواصل مع أي منظم لبرنامج زمالة فاطمة من خلال Slack أو عنوان البريد الإلكتروني الموجود على موقع البرنامج.</t>
+    <t>عرض وإدارة الملفات المخزنة على جهازك، بما في ذلك الصور ومقاطع الفيديو والموسيقى ومقاطع الصوت.</t>
+  </si>
+  <si>
+    <t>يقدم Android Auto التطبيقات الأكثر فائدة إلى شاشة جهازك أو شاشة سيارتك المتوافقة بتنسيق يسهل عليك الحفاظ على تركيزك الأساسي على القيادة.</t>
+  </si>
+  <si>
+    <t>يجب تمكين إعدادات الرقابة الأبوية لضمان عدم وصول الأطفال إلى الخدمات أو المحتوى غير المعتمد من قبل الوالدين.</t>
+  </si>
+  <si>
+    <t>يجب على أفراد المجتمع استخدام جلسات Zoom/الحضور أثناء تواجدهم في مساحة يمكنهم من خلالها التركيز وعدم تعريض أنفسهم أو الآخرين للخطر</t>
+  </si>
+  <si>
+    <t>إذا كنت تشعر أن هذه الوثيقة بحاجة إلى تعديل صياغتها، فلا تتردد في التواصل مع أي منظم لبرنامج زمالة فاطمة من خلال Slack أو عنوان البريد الإلكتروني الموجود على موقع البرنامج.</t>
   </si>
   <si>
     <t>يُسمح بإنشاء نموذج سجل لأغراض الإبلاغ عن انتهاك قواعد السلوك للغرض المذكور فقط، وفقط عند مشاركته مع منظم معين من قبل زمالة فاطمة للتعامل مع هذه الانتهاكات</t>
   </si>
   <si>
-    <t> نحن ندرك أن عملنا كباحثين يعتمد في كثير من الأحيان على مساهمات الآخرين.</t>
-  </si>
-  <si>
-    <t> لا تشكل المشاركة في زمالة فاطمة كمنظم أو مرشد أو زميل أي وكالة أو شراكة أو مشروع مشترك بينك وبين زمالة فاطمة و/أو أي عضو آخر في المجتمع أو مؤسسته الأصلية</t>
-  </si>
-  <si>
-    <t> إذا كان الإجراء القانوني ضروريًا لتنفيذ شروط هذا العقد، فيحق للطرف السائد الحصول على أتعاب محاماة معقولة بالإضافة إلى أي تعويضات أخرى قد يحق لذلك الطرف الحصول عليها قانونًا.</t>
-  </si>
-  <si>
-    <t> في مثل هذه الحالة، سيصبح أي مبلغ مستحق على الفور مستحقًا وواجب الدفع للمقاول.</t>
+    <t>نحن ندرك أن عملنا كباحثين يعتمد في كثير من الأحيان على مساهمات الآخرين.</t>
+  </si>
+  <si>
+    <t>لا تشكل المشاركة في زمالة فاطمة كمنظم أو مرشد أو زميل أي وكالة أو شراكة أو مشروع مشترك بينك وبين زمالة فاطمة و/أو أي عضو آخر في المجتمع أو مؤسسته الأصلية</t>
+  </si>
+  <si>
+    <t>إذا كان الإجراء القانوني ضروريًا لتنفيذ شروط هذا العقد، فيحق للطرف السائد الحصول على أتعاب محاماة معقولة بالإضافة إلى أي تعويضات أخرى قد يحق لذلك الطرف الحصول عليها قانونًا.</t>
+  </si>
+  <si>
+    <t>في مثل هذه الحالة، سيصبح أي مبلغ مستحق على الفور مستحقًا وواجب الدفع للمقاول.</t>
   </si>
   <si>
     <t>يجوز لأي من الطرفين أن يختار الإعفاء من أي التزامات أداء أخرى في حالة حدوث كارثة خارجة عن سيطرة أي من الطرفين والتي تؤثر ماديًا على أداء الخدمات، مثل: القضاء والقدر (الحرائق والانفجارات والزلازل والأعاصير والظواهر الطبيعية الكوارث أو الفيضانات أو العواصف أو الإصابة)، أو الحرب، أو الغزو، أو أعمال الأعداء الأجانب، أو الحظر، أو أي أعمال عدائية أخرى (سواء كانت معلنة أم لا)، أو أي موقف خطير يتم إنشاؤه خارج سيطرة أي من الطرفين مثل أعمال الشغب أو الفوضى أو الأسلحة النووية. تسرب أو انفجار أو عمل إرهابي أو التهديد به.</t>
   </si>
   <si>
-    <t> تم توفير العناوين ورؤوس الأقسام في هذه الاتفاقية للملاءمة فقط ولا ينبغي تفسيرها على أنها جزء من هذه الاتفاقية.</t>
-  </si>
-  <si>
-    <t> يُطلب من كل فريق أن يلعب مع جميع أعضاء الفريق المؤهلين في كل مباراة ما لم يتعرض اللاعب للإصابة أو تتم إزالته لأسباب تأديبية.</t>
-  </si>
-  <si>
-    <t> يجوز إضافة فئة عمرية في حال وجود عدد كاف من المتنافسين في الفئة العمرية 30 سنة فما فوق.</t>
+    <t>تم توفير العناوين ورؤوس الأقسام في هذه الاتفاقية للملاءمة فقط ولا ينبغي تفسيرها على أنها جزء من هذه الاتفاقية.</t>
+  </si>
+  <si>
+    <t>يُطلب من كل فريق أن يلعب مع جميع أعضاء الفريق المؤهلين في كل مباراة ما لم يتعرض اللاعب للإصابة أو تتم إزالته لأسباب تأديبية.</t>
+  </si>
+  <si>
+    <t>يجوز إضافة فئة عمرية في حال وجود عدد كاف من المتنافسين في الفئة العمرية 30 سنة فما فوق.</t>
   </si>
   <si>
     <t>إذا قرر مندوب الرياضة الموحدة أن أحد اللاعبين يسيطر على اللعب، فيجب على هذا المسؤول معاقبة المدرب</t>
   </si>
   <si>
-    <t> أي فرد أو فريق أو وفد يرفض التنافس أو المشاركة في ألعاب أو أنشطة الأولمبياد الخاص على أساس الأصل العرقي أو الجنس أو الدين أو الانتماء السياسي لزملائهم من رياضيي الأولمبياد الخاص في تلك الأنشطة، سيتم استبعاده من المشاركة في الألعاب أو الحدث المعني وغير مؤهل للحصول على جوائز أو تقدير في ذلك الحدث</t>
-  </si>
-  <si>
-    <t> إذا كان عمر أي عضو في الفريق يتراوح بين 14 - 17 عامًا، فيجب ألا يزيد الفارق بين أصغر وأكبر عضو في الفريق عن 5 سنوات</t>
-  </si>
-  <si>
-    <t> يتولى نائب رئيس الولايات المتحدة منصب رئيس مجلس الشيوخ، ولكن ليس له حق التصويت، ما لم يتم تقسيمهما بالتساوي</t>
+    <t>أي فرد أو فريق أو وفد يرفض التنافس أو المشاركة في ألعاب أو أنشطة الأولمبياد الخاص على أساس الأصل العرقي أو الجنس أو الدين أو الانتماء السياسي لزملائهم من رياضيي الأولمبياد الخاص في تلك الأنشطة، سيتم استبعاده من المشاركة في الألعاب أو الحدث المعني وغير مؤهل للحصول على جوائز أو تقدير في ذلك الحدث</t>
+  </si>
+  <si>
+    <t>إذا كان عمر أي عضو في الفريق يتراوح بين 14 - 17 عامًا، فيجب ألا يزيد الفارق بين أصغر وأكبر عضو في الفريق عن 5 سنوات</t>
+  </si>
+  <si>
+    <t>يتولى نائب رئيس الولايات المتحدة منصب رئيس مجلس الشيوخ، ولكن ليس له حق التصويت، ما لم يتم تقسيمهما بالتساوي</t>
   </si>
   <si>
     <t>يجب أن يشغل القضاة، في كل من المحكمتين العليا والدنيا، مناصبهم أثناء سلوكهم الجيد، ويجب أن يتقاضوا مقابل خدماتهم، في أوقات محددة، تعويضًا لا يجوز النقصان منه أثناء استمرارهم في مناصبهم.</t>
   </si>
   <si>
-    <t> يحظر بموجب هذا النقل أو الاستيراد إلى أي ولاية أو إقليم أو حيازة الولايات المتحدة لتسليم أو استخدام المشروبات الكحولية المسكرة، في انتهاك لقوانينها.</t>
-  </si>
-  <si>
-    <t> فيما يتعلق بمطالبة توماس بالمساعدة غير الفعالة، قررت الهيئة أن محكمة المثول أمام القضاء بالولاية لم تكن غير معقولة بشكل موضوعي في العثور على محامي المحاكمة غير فعال، موضحة أن فشل المحامي في التحقيق في معارضة المحلف رقم خمسة والمحلف رقم ستة للزواج بين الأعراق أو الإنجاب على الأرجح كان قرارًا تكتيكيًا.</t>
-  </si>
-  <si>
-    <t> إذا طلب مقدمو الطلبات ولم يحصلوا على مراجعة عاجلة أو إعانة مؤقتة من محاكم نيويورك، فيمكنهم العودة إلى هذه المحكمة</t>
+    <t>يحظر بموجب هذا النقل أو الاستيراد إلى أي ولاية أو إقليم أو حيازة الولايات المتحدة لتسليم أو استخدام المشروبات الكحولية المسكرة، في انتهاك لقوانينها.</t>
+  </si>
+  <si>
+    <t>فيما يتعلق بمطالبة توماس بالمساعدة غير الفعالة، قررت الهيئة أن محكمة المثول أمام القضاء بالولاية لم تكن غير معقولة بشكل موضوعي في العثور على محامي المحاكمة غير فعال، موضحة أن فشل المحامي في التحقيق في معارضة المحلف رقم خمسة والمحلف رقم ستة للزواج بين الأعراق أو الإنجاب على الأرجح كان قرارًا تكتيكيًا.</t>
+  </si>
+  <si>
+    <t>إذا طلب مقدمو الطلبات ولم يحصلوا على مراجعة عاجلة أو إعانة مؤقتة من محاكم نيويورك، فيمكنهم العودة إلى هذه المحكمة</t>
   </si>
   <si>
     <t>ومن واجبنا أن ندافع عن الدستور حتى عندما يكون ذلك مثيراً للجدل</t>
   </si>
   <si>
-    <t> وتشمل القوانين الأخرى قانون علاقات العمل، وقانون السلامة والصحة والرفاهية المهنية، وقانون تعويض العمال.</t>
-  </si>
-  <si>
-    <t> وبين الفترتين 2006 - 2010 و2010 - 2014، حدثت زيادة طفيفة في مشاركة المرأة في الكونغرس، حيث ارتفعت من 12 إلى 16 في المائة في مجلس الشيوخ ومن 10 إلى 12 في المائة في مجلس النواب؛</t>
-  </si>
-  <si>
-    <t> وتشمل المؤشرات التي تحتوي على بيانات غير منتظمة/غير كاملة تلك المتعلقة بوفيات الأطفال والالتحاق بالتعليم.</t>
-  </si>
-  <si>
-    <t> ومما يثير قلقنا بشكل خاص أن تلك الألغام لها آثار عشوائية.</t>
-  </si>
-  <si>
-    <t> تم تحديد الموعد النهائي لتقديم طلبات الحصول على جوائز زمالة 2010-2011 في 15 أغسطس 2009، وستجتمع لجنة اختيار الزمالات في الربع الأخير من عام 2009 لمراجعة الطلبات ومنح زمالات 2010-2011.</t>
-  </si>
-  <si>
-    <t> يبلغ طول البكتيريا عادةً بضعة أجزاء من المليون من المتر.</t>
+    <t>وتشمل القوانين الأخرى قانون علاقات العمل، وقانون السلامة والصحة والرفاهية المهنية، وقانون تعويض العمال.</t>
+  </si>
+  <si>
+    <t>وبين الفترتين 2006 - 2010 و2010 - 2014، حدثت زيادة طفيفة في مشاركة المرأة في الكونغرس، حيث ارتفعت من 12 إلى 16 في المائة في مجلس الشيوخ ومن 10 إلى 12 في المائة في مجلس النواب؛</t>
+  </si>
+  <si>
+    <t>وتشمل المؤشرات التي تحتوي على بيانات غير منتظمة/غير كاملة تلك المتعلقة بوفيات الأطفال والالتحاق بالتعليم.</t>
+  </si>
+  <si>
+    <t>ومما يثير قلقنا بشكل خاص أن تلك الألغام لها آثار عشوائية.</t>
+  </si>
+  <si>
+    <t>تم تحديد الموعد النهائي لتقديم طلبات الحصول على جوائز زمالة 2010-2011 في 15 أغسطس 2009، وستجتمع لجنة اختيار الزمالات في الربع الأخير من عام 2009 لمراجعة الطلبات ومنح زمالات 2010-2011.</t>
+  </si>
+  <si>
+    <t>يبلغ طول البكتيريا عادةً بضعة أجزاء من المليون من المتر.</t>
   </si>
   <si>
     <t>إن كرتنا الأرضية الصغيرة هي بيت المجانين لمئات الآلاف من الملايين من العوالم.</t>
   </si>
   <si>
-    <t> إنه جميل جدًا في كاسيمبو، عندما تكون بالداخل ومعك شيء دافئ للشرب ويمكنك سماعه وهو يندفع عبر الأشجار بالخارج.</t>
-  </si>
-  <si>
-    <t> يمكنهم في بعض الأحيان التصبن، حيث تتحول دهون الجسم حرفيًا إلى مادة تشبه الصابون، لكن ذلك يستغرق وقتًا طويلاً لذا أشك في حدوث ذلك هنا.</t>
-  </si>
-  <si>
-    <t> بالضبط بسبب مخاوفنا الداخلية بشأن المدن، تم إسقاط هذه المدن الثلاث من جميع التحليلات، كما هو الحال في جولدسبورو، المدينة التي انتهت فيها المسيرة بعد استسلام المعارضة الكونفدرالية.</t>
-  </si>
-  <si>
-    <t> إن إدراجنا في المواصفات الرئيسية لكل من التأثيرات الثابتة للمقاطعات والتأثيرات الثابتة لكل ولاية على حدة، بالإضافة إلى الضوابط المرنة المستندة إلى المتغيرات المقاسة في عام 1860، يجعل هذا الأمر غير مرجح، لكنه لا يمكن استبعاد هذا الاحتمال</t>
-  </si>
-  <si>
-    <t> على وجه الخصوص، نحن نركز على ارتفاع إيجار المزرعة وتقاسم المحاصيل خلال فترة ما بعد الحرب.</t>
+    <t>إنه جميل جدًا في كاسيمبو، عندما تكون بالداخل ومعك شيء دافئ للشرب ويمكنك سماعه وهو يندفع عبر الأشجار بالخارج.</t>
+  </si>
+  <si>
+    <t>يمكنهم في بعض الأحيان التصبن، حيث تتحول دهون الجسم حرفيًا إلى مادة تشبه الصابون، لكن ذلك يستغرق وقتًا طويلاً لذا أشك في حدوث ذلك هنا.</t>
+  </si>
+  <si>
+    <t>بالضبط بسبب مخاوفنا الداخلية بشأن المدن، تم إسقاط هذه المدن الثلاث من جميع التحليلات، كما هو الحال في جولدسبورو، المدينة التي انتهت فيها المسيرة بعد استسلام المعارضة الكونفدرالية.</t>
+  </si>
+  <si>
+    <t>إن إدراجنا في المواصفات الرئيسية لكل من التأثيرات الثابتة للمقاطعات والتأثيرات الثابتة لكل ولاية على حدة، بالإضافة إلى الضوابط المرنة المستندة إلى المتغيرات المقاسة في عام 1860، يجعل هذا الأمر غير مرجح، لكنه لا يمكن استبعاد هذا الاحتمال</t>
+  </si>
+  <si>
+    <t>على وجه الخصوص، نحن نركز على ارتفاع إيجار المزرعة وتقاسم المحاصيل خلال فترة ما بعد الحرب.</t>
   </si>
   <si>
     <t>وفي الآونة الأخيرة، أظهر خان (2015) أن سوء تخصيص الموارد أثناء الحرب بسبب انخفاض الحراك الجغرافي وزيادة المكافآت للتكنولوجيات العسكرية كان قصير الأجل ولم يعيق قدرة التقدم التكنولوجي على المدى الطويل.</t>
   </si>
   <si>
-    <t> في فترة ما قبل الحرب المباشرة، تمت الزراعة باستخدام "خيول شيرمان"، وهي الحيوانات القديمة "المدعومة بآلام الظهر" و"المسيئة" التي استبدلها جيش الاتحاد بجولات جديدة على طول مسار المسيرة.</t>
-  </si>
-  <si>
-    <t> وقد حذر ديفيد كارون من أن شكل المواد من شأنه أن يطغى على الخلافات حول الجوهر: وأن ممارسي القانون الدولي، المنبهرين بشكلها الأنيق، سوف يتجاهلون بعض الشكوك العميقة التي ظلت عالقة في بعض أجزاء المواد.</t>
-  </si>
-  <si>
-    <t> ومن الواضح أن عملية التشفير التي قامت بها اللجنة عملت على بلورة وصياغة مفاهيم جديدة وتوضيح أخرى.</t>
-  </si>
-  <si>
-    <t> تميل هذه المناقشات ببساطة إلى التلاشي بعد أن تتشعب وتتشابك في تفاصيل ووجهات نظر متعددة.</t>
+    <t>في فترة ما قبل الحرب المباشرة، تمت الزراعة باستخدام "خيول شيرمان"، وهي الحيوانات القديمة "المدعومة بآلام الظهر" و"المسيئة" التي استبدلها جيش الاتحاد بجولات جديدة على طول مسار المسيرة.</t>
+  </si>
+  <si>
+    <t>وقد حذر ديفيد كارون من أن شكل المواد من شأنه أن يطغى على الخلافات حول الجوهر: وأن ممارسي القانون الدولي، المنبهرين بشكلها الأنيق، سوف يتجاهلون بعض الشكوك العميقة التي ظلت عالقة في بعض أجزاء المواد.</t>
+  </si>
+  <si>
+    <t>ومن الواضح أن عملية التشفير التي قامت بها اللجنة عملت على بلورة وصياغة مفاهيم جديدة وتوضيح أخرى.</t>
+  </si>
+  <si>
+    <t>تميل هذه المناقشات ببساطة إلى التلاشي بعد أن تتشعب وتتشابك في تفاصيل ووجهات نظر متعددة.</t>
   </si>
   <si>
     <t>لدي وعي بالموت بداخلي، كما يؤكد ليريس، لذلك لا بد أن يكون هناك حدث تم فيه خلق هذا الوعي.</t>
   </si>
   <si>
-    <t> هناك نوعان من العوائق التي تحول دون معرفة الذات، وكلاهما يمكن قراءته في استعارة فرويد الشهيرة لسرة الحلم.</t>
-  </si>
-  <si>
-    <t> ما لا نستطيع اكتشافه، كما يقول فرويد هنا، ليس نقطة واحدة من بين نقاط كثيرة، بل النقطة، المركز نفسه، السرة التي تربطنا بأعمق أصولنا.</t>
-  </si>
-  <si>
-    <t> عندما يساهم التفكير غير الصحيح أو غير المكتمل في اختيار إجابة غير صحيحة، كان هناك حاجة إلى وقت لمساعدة الطالب أو المجموعة في تصحيح أو إعادة توجيه تفكيرهم في الاتجاه الصحيح</t>
-  </si>
-  <si>
-    <t> ولتحقيق هذه الغاية، قمنا بتطوير سلسلة من أنشطة التعلم/التقييم في مجموعات صغيرة (SGL/A) تتضمن ممارسة استرجاع التصنيف مع تعليقات منظمة قمنا بإدراجها في دورة التشريح العصبي قبل السريري.</t>
-  </si>
-  <si>
-    <t> قمنا بتقسيم فصلنا المكون من 42 طالبًا إلى ست مجموعات مكونة من سبعة طلاب في كل مجموعة، حيث تم تكليف كل مجموعة بالعمل معًا للإجابة على أسئلة نوع الخطوة 1.</t>
+    <t>هناك نوعان من العوائق التي تحول دون معرفة الذات، وكلاهما يمكن قراءته في استعارة فرويد الشهيرة لسرة الحلم.</t>
+  </si>
+  <si>
+    <t>ما لا نستطيع اكتشافه، كما يقول فرويد هنا، ليس نقطة واحدة من بين نقاط كثيرة، بل النقطة، المركز نفسه، السرة التي تربطنا بأعمق أصولنا.</t>
+  </si>
+  <si>
+    <t>عندما يساهم التفكير غير الصحيح أو غير المكتمل في اختيار إجابة غير صحيحة، كان هناك حاجة إلى وقت لمساعدة الطالب أو المجموعة في تصحيح أو إعادة توجيه تفكيرهم في الاتجاه الصحيح</t>
+  </si>
+  <si>
+    <t>ولتحقيق هذه الغاية، قمنا بتطوير سلسلة من أنشطة التعلم/التقييم في مجموعات صغيرة (SGL/A) تتضمن ممارسة استرجاع التصنيف مع تعليقات منظمة قمنا بإدراجها في دورة التشريح العصبي قبل السريري.</t>
+  </si>
+  <si>
+    <t>قمنا بتقسيم فصلنا المكون من 42 طالبًا إلى ست مجموعات مكونة من سبعة طلاب في كل مجموعة، حيث تم تكليف كل مجموعة بالعمل معًا للإجابة على أسئلة نوع الخطوة 1.</t>
   </si>
   <si>
     <t>ولكن حتى على الجانب السياسي من الانقسام، فإن نسبة الدراسات التي تتبنى وجهة نظر تتمحور حول السياسة بشكل بحت آخذة في الانخفاض بشكل كبير.</t>
   </si>
   <si>
-    <t> في مراجعتهما الشاملة لأدبيات الاتصال السياسي، حدد بوسي ودانجيلو (1999، 2004) ثلاثة انتقادات متواصلة للصحافة في السياسة، والتي صيغت كنقد دائم لوسائل الإعلام والديمقراطية: فرضية الشعور بالضيق من الفيديو، ونظرية تدخل وسائل الإعلام، والنظرية الاجتماعية. أطروحة التآكل.</t>
-  </si>
-  <si>
-    <t> ويبدو أن تحيز العلوم السياسية الذي تم تحديده سابقا في الأدبيات قد تراجع، على الأقل في الدوريتين اللتين تم تحليلهما هنا، وربما يرجع ذلك إلى انفجار المنصات الجديدة وتقنيات التوصيل التي شقت طريقها إلى السياسة بطرق غير متوقعة.</t>
-  </si>
-  <si>
-    <t> ومن الجدير بالذكر، كما هو الحال في حالة التواصل، أن هذا التقارب يتيح تبادل المعرفة أو حتى التفاوض بين أصحاب المصلحة، حيث يمكن للجميع التحدث بنفس "اللغة".</t>
+    <t>في مراجعتهما الشاملة لأدبيات الاتصال السياسي، حدد بوسي ودانجيلو (1999، 2004) ثلاثة انتقادات متواصلة للصحافة في السياسة، والتي صيغت كنقد دائم لوسائل الإعلام والديمقراطية: فرضية الشعور بالضيق من الفيديو، ونظرية تدخل وسائل الإعلام، والنظرية الاجتماعية. أطروحة التآكل.</t>
+  </si>
+  <si>
+    <t>ويبدو أن تحيز العلوم السياسية الذي تم تحديده سابقا في الأدبيات قد تراجع، على الأقل في الدوريتين اللتين تم تحليلهما هنا، وربما يرجع ذلك إلى انفجار المنصات الجديدة وتقنيات التوصيل التي شقت طريقها إلى السياسة بطرق غير متوقعة.</t>
+  </si>
+  <si>
+    <t>ومن الجدير بالذكر، كما هو الحال في حالة التواصل، أن هذا التقارب يتيح تبادل المعرفة أو حتى التفاوض بين أصحاب المصلحة، حيث يمكن للجميع التحدث بنفس "اللغة".</t>
   </si>
   <si>
     <t>نظرًا للقيود المعروفة وبنية البيئة، يمكن لطرق تخطيط الحركة التقليدية العثور بقوة على مسارات خالية من القيود تربط بين بداية الهدف وتكوينات الهدف [1]، حتى في المشكلات طويلة الأفق.</t>
   </si>
   <si>
-    <t> لا تقوم الأساليب الأساسية بتدريب سياسات المهارات على مجموعة متنوعة بما فيه الكفاية من الأشياء، وبالتالي لا يمكنها في كثير من الأحيان إكمال المهام في غضون 10 خطوات.</t>
-  </si>
-  <si>
-    <t> شخص يرتدي بنطالًا ورديًا ويعزف على الجيتار</t>
-  </si>
-  <si>
-    <t> فتاة صغيرة تقطع الورق.</t>
-  </si>
-  <si>
-    <t> الرقم الموجود في سلة المهملات هو 66 .</t>
-  </si>
-  <si>
-    <t> مجموعة كبيرة من الناس ينتظرون في محطة القطار.</t>
-  </si>
-  <si>
-    <t> طفل صغير يجلس على أكتاف والده وهو يحمل البالونات</t>
-  </si>
-  <si>
-    <t> فقط لأنك تخاف من المحيط..</t>
-  </si>
-  <si>
-    <t> بالنسبة لسمكة المهرج، فهو ليس مضحكًا.</t>
-  </si>
-  <si>
-    <t> سمعت أنه أخذ على ثلاثة.</t>
-  </si>
-  <si>
-    <t> أنا خائف الآن !</t>
-  </si>
-  <si>
-    <t> تذكرت ما قاله.</t>
-  </si>
-  <si>
-    <t> صبي يقف على تلة رمي الكرة إلى الماسك.</t>
-  </si>
-  <si>
-    <t> رجل يجلس ويقص شعره بينما تتحدث امرأة عن ذلك.</t>
+    <t>لا تقوم الأساليب الأساسية بتدريب سياسات المهارات على مجموعة متنوعة بما فيه الكفاية من الأشياء، وبالتالي لا يمكنها في كثير من الأحيان إكمال المهام في غضون 10 خطوات.</t>
+  </si>
+  <si>
+    <t>شخص يرتدي بنطالًا ورديًا ويعزف على الجيتار</t>
+  </si>
+  <si>
+    <t>فتاة صغيرة تقطع الورق.</t>
+  </si>
+  <si>
+    <t>الرقم الموجود في سلة المهملات هو 66 .</t>
+  </si>
+  <si>
+    <t>مجموعة كبيرة من الناس ينتظرون في محطة القطار.</t>
+  </si>
+  <si>
+    <t>طفل صغير يجلس على أكتاف والده وهو يحمل البالونات</t>
+  </si>
+  <si>
+    <t>فقط لأنك تخاف من المحيط..</t>
+  </si>
+  <si>
+    <t>بالنسبة لسمكة المهرج، فهو ليس مضحكًا.</t>
+  </si>
+  <si>
+    <t>سمعت أنه أخذ على ثلاثة.</t>
+  </si>
+  <si>
+    <t>أنا خائف الآن !</t>
+  </si>
+  <si>
+    <t>تذكرت ما قاله.</t>
+  </si>
+  <si>
+    <t>صبي يقف على تلة رمي الكرة إلى الماسك.</t>
+  </si>
+  <si>
+    <t>رجل يجلس ويقص شعره بينما تتحدث امرأة عن ذلك.</t>
   </si>
   <si>
     <t>رجل يقف بالخارج وسط الثلج ويرمي بفأس على هدف بولس. رجل يصب بعض الجعة في كأس صموئيل آدامز.</t>
   </si>
   <si>
-    <t> امرأتان على خشبة المسرح تقدمان جوائز لثلاثة رجال آخرين يرتدون بدلات عمل.</t>
-  </si>
-  <si>
-    <t> كان رجل يرى لوحة HDFC ويحرك رأسه ورجل يسحب الأموال من ماكينة الصراف الآلي. طفل لطيف يشرب باستخدام يديه وشخص آخر يساعد.</t>
-  </si>
-  <si>
-    <t> يستخدم عامل المعادن معدات اللحام للعمل على لوحة معدنية كبيرة.</t>
-  </si>
-  <si>
-    <t> علينا أن نفعل كل ما يلزم للعودة.</t>
-  </si>
-  <si>
-    <t> أعتقد أنها مجرد "أشياء" هنا.</t>
-  </si>
-  <si>
-    <t> لا مزيد من المسامير المكشوفة أو أعشاش الأبوسوم.</t>
-  </si>
-  <si>
-    <t> لم أقصد الكذب أبدًا، لكن كان عليّ البقاء.</t>
-  </si>
-  <si>
-    <t> ربما ينبغي لنا أن نأخذ قسطا من الراحة.</t>
-  </si>
-  <si>
-    <t> الفتيات اللاتي يُدعى ميراندا لا يعتقدن أبدًا أنه من المضحك عندما تخبرهم أن لديهم الحق في البقاء صامتين.</t>
-  </si>
-  <si>
-    <t> أتمنى لو كنت فلفلًا حتى أتمكن من العمل في الهالابينو</t>
-  </si>
-  <si>
-    <t> عندما تصاب بتجميد الدماغ من المارجريتا، فأنت تعلم أن لديك مشاكل</t>
-  </si>
-  <si>
-    <t> إذا رأيت مهرجًا مخيفًا في أي وقت مضى... فابحث عن المشعوذ</t>
+    <t>امرأتان على خشبة المسرح تقدمان جوائز لثلاثة رجال آخرين يرتدون بدلات عمل.</t>
+  </si>
+  <si>
+    <t>كان رجل يرى لوحة HDFC ويحرك رأسه ورجل يسحب الأموال من ماكينة الصراف الآلي. طفل لطيف يشرب باستخدام يديه وشخص آخر يساعد.</t>
+  </si>
+  <si>
+    <t>يستخدم عامل المعادن معدات اللحام للعمل على لوحة معدنية كبيرة.</t>
+  </si>
+  <si>
+    <t>علينا أن نفعل كل ما يلزم للعودة.</t>
+  </si>
+  <si>
+    <t>أعتقد أنها مجرد "أشياء" هنا.</t>
+  </si>
+  <si>
+    <t>لا مزيد من المسامير المكشوفة أو أعشاش الأبوسوم.</t>
+  </si>
+  <si>
+    <t>لم أقصد الكذب أبدًا، لكن كان عليّ البقاء.</t>
+  </si>
+  <si>
+    <t>ربما ينبغي لنا أن نأخذ قسطا من الراحة.</t>
+  </si>
+  <si>
+    <t>الفتيات اللاتي يُدعى ميراندا لا يعتقدن أبدًا أنه من المضحك عندما تخبرهم أن لديهم الحق في البقاء صامتين.</t>
+  </si>
+  <si>
+    <t>أتمنى لو كنت فلفلًا حتى أتمكن من العمل في الهالابينو</t>
+  </si>
+  <si>
+    <t>عندما تصاب بتجميد الدماغ من المارجريتا، فأنت تعلم أن لديك مشاكل</t>
+  </si>
+  <si>
+    <t>إذا رأيت مهرجًا مخيفًا في أي وقت مضى... فابحث عن المشعوذ</t>
   </si>
   <si>
     <t>لقد وجد العلماء... ...أن الناس لا يهتمون باللامبالاة.</t>
   </si>
   <si>
-    <t> لقد نفذ كل شيء رجل شرير، فعل كل شيء: المقدم دو باتي دي كلام، الذي كان في ذلك الوقت مجرد قائد.</t>
-  </si>
-  <si>
-    <t> وبعد ذلك تقريبًا بين عشية وضحاها أسنان وشعر وكل الأعمار ويبلغ عمرك 50 عامًا لمدة 10 سنوات تقريبًا، ثم مع قعقعة كبيرة مثل سلسلة صدئة تبلغ من العمر 60 عامًا وهكذا.</t>
-  </si>
-  <si>
-    <t> إنه فخر خالص، كما كان في ذلك الوقت.</t>
-  </si>
-  <si>
-    <t> لست متأكدًا مما تقصده بكلمة Hit، إلا إذا كنت تشير إلى جميع القنوات الناجحة الرائعة التي ستتمكن من مشاهدتها بعد استخدام خدمتي.. مرحبًا.. مرحبًا.</t>
-  </si>
-  <si>
-    <t> إنه أنبوب علوي مقاس 20.75 بوصة Fit Bike VH2.</t>
-  </si>
-  <si>
-    <t> انا مهتم بهذه السلعة.</t>
-  </si>
-  <si>
-    <t> إنها دراجة رائعة، ووقت ركوب ضئيل للغاية، ويتم الاحتفاظ بها دائمًا في المرآب وركوبها للبالغين.</t>
-  </si>
-  <si>
-    <t> لدينا جميع الخيارات المتاحة لك في الوقت الحالي، على الرغم من أنه في الوقت الحالي ليس لدينا سوى شقتين من 3 غرف نوم.</t>
-  </si>
-  <si>
-    <t> هل لي ان اساعدك سيدي ؟</t>
-  </si>
-  <si>
-    <t> ولا أعرف لماذا تزوجته.</t>
-  </si>
-  <si>
-    <t> أتمنى أن أعرف من الذي قام بنقل أواني الزهور الخاصة بنا.</t>
-  </si>
-  <si>
-    <t> ماذا قال الرئيس ؟</t>
+    <t>لقد نفذ كل شيء رجل شرير، فعل كل شيء: المقدم دو باتي دي كلام، الذي كان في ذلك الوقت مجرد قائد.</t>
+  </si>
+  <si>
+    <t>وبعد ذلك تقريبًا بين عشية وضحاها أسنان وشعر وكل الأعمار ويبلغ عمرك 50 عامًا لمدة 10 سنوات تقريبًا، ثم مع قعقعة كبيرة مثل سلسلة صدئة تبلغ من العمر 60 عامًا وهكذا.</t>
+  </si>
+  <si>
+    <t>إنه فخر خالص، كما كان في ذلك الوقت.</t>
+  </si>
+  <si>
+    <t>لست متأكدًا مما تقصده بكلمة Hit، إلا إذا كنت تشير إلى جميع القنوات الناجحة الرائعة التي ستتمكن من مشاهدتها بعد استخدام خدمتي.. مرحبًا.. مرحبًا.</t>
+  </si>
+  <si>
+    <t>إنه أنبوب علوي مقاس 20.75 بوصة Fit Bike VH2.</t>
+  </si>
+  <si>
+    <t>انا مهتم بهذه السلعة.</t>
+  </si>
+  <si>
+    <t>إنها دراجة رائعة، ووقت ركوب ضئيل للغاية، ويتم الاحتفاظ بها دائمًا في المرآب وركوبها للبالغين.</t>
+  </si>
+  <si>
+    <t>لدينا جميع الخيارات المتاحة لك في الوقت الحالي، على الرغم من أنه في الوقت الحالي ليس لدينا سوى شقتين من 3 غرف نوم.</t>
+  </si>
+  <si>
+    <t>هل لي ان اساعدك سيدي ؟</t>
+  </si>
+  <si>
+    <t>ولا أعرف لماذا تزوجته.</t>
+  </si>
+  <si>
+    <t>أتمنى أن أعرف من الذي قام بنقل أواني الزهور الخاصة بنا.</t>
+  </si>
+  <si>
+    <t>ماذا قال الرئيس ؟</t>
   </si>
   <si>
     <t>هل يمكن أن تخبرني أين وضعت كتابي؟</t>
   </si>
   <si>
-    <t> ضبط المنبه على الساعة 9 صباحًا كل يوم جمعة</t>
-  </si>
-  <si>
-    <t> ضبط المنبه على الساعة 6 مساءً اليوم</t>
-  </si>
-  <si>
-    <t> مسح جميع الإنذارات الخاصة بي من فضلك</t>
-  </si>
-  <si>
-    <t> كم من الوقت حتى ينطلق المنبه</t>
-  </si>
-  <si>
-    <t> كم من الوقت قبل أن ينطلق المنبه؟</t>
-  </si>
-  <si>
-    <t> كومة من الصور المكسورة، حيث تنبض الشمس</t>
-  </si>
-  <si>
-    <t> شكرًا لك.</t>
-  </si>
-  <si>
-    <t> ومع ذلك، كان يعاني من نزلة برد سيئة</t>
-  </si>
-  <si>
-    <t> هناك ظل تحت هذه الصخرة الحمراء</t>
-  </si>
-  <si>
-    <t> سيدة المواقف</t>
-  </si>
-  <si>
-    <t> وبعد 20 شهرا من العمل الشاق، لم يعد الوباء يسيطر على حياتنا.</t>
-  </si>
-  <si>
-    <t> لقد سمعتني أقول ذلك إلى حد الغثيان: لا أعرف أين هو مكتوب أنه لا يمكننا أن نكون عاصمة التصنيع في العالم.</t>
-  </si>
-  <si>
-    <t> دعونا نصوت لكارين باس لمنصب عمدة المدينة.</t>
-  </si>
-  <si>
-    <t> لكن الأغلبية الساحقة من الشعب الأميركي تدعم عناصر أجندتي الاقتصادية – بدءاً من إعادة بناء الطرق والجسور الأميركية؛ وخفض تكاليف الأدوية الموصوفة؛ وإلى استثمار تاريخي في معالجة أزمة المناخ؛ للتأكد من أن الشركات الكبيرة تبدأ في دفع حصتها العادلة من الضرائب.</t>
+    <t>ضبط المنبه على الساعة 9 صباحًا كل يوم جمعة</t>
+  </si>
+  <si>
+    <t>ضبط المنبه على الساعة 6 مساءً اليوم</t>
+  </si>
+  <si>
+    <t>مسح جميع الإنذارات الخاصة بي من فضلك</t>
+  </si>
+  <si>
+    <t>كم من الوقت حتى ينطلق المنبه</t>
+  </si>
+  <si>
+    <t>كم من الوقت قبل أن ينطلق المنبه؟</t>
+  </si>
+  <si>
+    <t>كومة من الصور المكسورة، حيث تنبض الشمس</t>
+  </si>
+  <si>
+    <t>شكرًا لك.</t>
+  </si>
+  <si>
+    <t>ومع ذلك، كان يعاني من نزلة برد سيئة</t>
+  </si>
+  <si>
+    <t>هناك ظل تحت هذه الصخرة الحمراء</t>
+  </si>
+  <si>
+    <t>سيدة المواقف</t>
+  </si>
+  <si>
+    <t>وبعد 20 شهرا من العمل الشاق، لم يعد الوباء يسيطر على حياتنا.</t>
+  </si>
+  <si>
+    <t>لقد سمعتني أقول ذلك إلى حد الغثيان: لا أعرف أين هو مكتوب أنه لا يمكننا أن نكون عاصمة التصنيع في العالم.</t>
+  </si>
+  <si>
+    <t>دعونا نصوت لكارين باس لمنصب عمدة المدينة.</t>
+  </si>
+  <si>
+    <t>لكن الأغلبية الساحقة من الشعب الأميركي تدعم عناصر أجندتي الاقتصادية – بدءاً من إعادة بناء الطرق والجسور الأميركية؛ وخفض تكاليف الأدوية الموصوفة؛ وإلى استثمار تاريخي في معالجة أزمة المناخ؛ للتأكد من أن الشركات الكبيرة تبدأ في دفع حصتها العادلة من الضرائب.</t>
   </si>
   <si>
     <t>وأنا واثق من أن هذه السياسات ناجحة وأننا نسير على الطريق الصحيح، وعلينا أن نلتزم بها.</t>
   </si>
   <si>
-    <t> ولأنهم عاشوا بجوار العواصم الموسيقية مثل نيويورك أو شيكاغو أو لوس أنجلوس، فقد درسوا في أماكن مثل جوليارد في عطلات نهاية الأسبوع.</t>
-  </si>
-  <si>
-    <t> إذا لم تواجههم؟</t>
-  </si>
-  <si>
-    <t> تقوم هذه العضلات الحية بتحويل الطاقة الكيميائية التي تأتي من العناصر الغذائية بكفاءة إلى تقلصات عضلية.</t>
-  </si>
-  <si>
-    <t> وفي الولايات المتحدة، يتسرب الطلاب من ذوي الدخل المنخفض من كليات المجتمع بمعدلات قياسية بسبب الحواجز التي يواجهونها.</t>
-  </si>
-  <si>
-    <t> ماذا تريد أن ترى يحدث؟</t>
-  </si>
-  <si>
-    <t> أين يمكنني الحصول على شهادة 7؟</t>
-  </si>
-  <si>
-    <t> ما هي الحقائق المثيرة للاهتمام حول المعابد الهندوسية؟</t>
-  </si>
-  <si>
-    <t> إذا كان الجزء الصعب في بناء كوادكوبتر؟</t>
-  </si>
-  <si>
-    <t> أين يمكنني العثور على حل سهل الفهم حول كيفية فقدان الوزن من خلال Firebase؟</t>
-  </si>
-  <si>
-    <t> لماذا تهسهس قطتي الصغيرة عليه؟</t>
-  </si>
-  <si>
-    <t> في أي فئة كانت UNIX؟</t>
-  </si>
-  <si>
-    <t> مع ذلك، لم أكن مهندسًا، لذلك يمكن لأي شخص كان/كان في كلية الهندسة أن يصحح لي إذا كنت مخطئًا.</t>
+    <t>ولأنهم عاشوا بجوار العواصم الموسيقية مثل نيويورك أو شيكاغو أو لوس أنجلوس، فقد درسوا في أماكن مثل جوليارد في عطلات نهاية الأسبوع.</t>
+  </si>
+  <si>
+    <t>إذا لم تواجههم؟</t>
+  </si>
+  <si>
+    <t>تقوم هذه العضلات الحية بتحويل الطاقة الكيميائية التي تأتي من العناصر الغذائية بكفاءة إلى تقلصات عضلية.</t>
+  </si>
+  <si>
+    <t>وفي الولايات المتحدة، يتسرب الطلاب من ذوي الدخل المنخفض من كليات المجتمع بمعدلات قياسية بسبب الحواجز التي يواجهونها.</t>
+  </si>
+  <si>
+    <t>ماذا تريد أن ترى يحدث؟</t>
+  </si>
+  <si>
+    <t>أين يمكنني الحصول على شهادة 7؟</t>
+  </si>
+  <si>
+    <t>ما هي الحقائق المثيرة للاهتمام حول المعابد الهندوسية؟</t>
+  </si>
+  <si>
+    <t>إذا كان الجزء الصعب في بناء كوادكوبتر؟</t>
+  </si>
+  <si>
+    <t>أين يمكنني العثور على حل سهل الفهم حول كيفية فقدان الوزن من خلال Firebase؟</t>
+  </si>
+  <si>
+    <t>لماذا تهسهس قطتي الصغيرة عليه؟</t>
+  </si>
+  <si>
+    <t>في أي فئة كانت UNIX؟</t>
+  </si>
+  <si>
+    <t>مع ذلك، لم أكن مهندسًا، لذلك يمكن لأي شخص كان/كان في كلية الهندسة أن يصحح لي إذا كنت مخطئًا.</t>
   </si>
   <si>
     <t>لذلك نعم، تحتاج إلى إرسال جميع الدرجات.</t>
   </si>
   <si>
-    <t> لا يزال بإمكانك الاندفاع في الربيع إذا كنت تريد تجربة الاندفاع "التقليدية" أكثر.</t>
-  </si>
-  <si>
-    <t> أنا في التخصص، وقد قمت بعمل جيد.</t>
+    <t>لا يزال بإمكانك الاندفاع في الربيع إذا كنت تريد تجربة الاندفاع "التقليدية" أكثر.</t>
+  </si>
+  <si>
+    <t>أنا في التخصص، وقد قمت بعمل جيد.</t>
   </si>
   <si>
     <t xml:space="preserve"> أرغب في إعادة تسمية قاعدة بيانات، ولكنني أتلقى الخطأ باستمرار وهو "تعذر الحصول على قفل حصري" لقاعدة البيانات، مما يعني أن هناك بعض الاتصالات (الاتصالات) لا تزال نشطة</t>
   </si>
   <si>
-    <t> ما الذي يحدث فعليًا ليتسبب في ظهور خطأ svn:المجموع الاختباري، وما هو أفضل حل.</t>
-  </si>
-  <si>
-    <t> أبحث عن أفضل طريقة لتسجيل الأخطاء في تطبيق ASP.NET.</t>
-  </si>
-  <si>
-    <t> القيمة المقدمة ككلمة المرور الحالية غير صحيحة.</t>
-  </si>
-  <si>
-    <t> معظم هذه الإعدادات موجودة لتخصيص قواعد عمل معينة، ولكن هناك أيضًا بعض الأشياء الأخرى.</t>
-  </si>
-  <si>
-    <t> أنا ذكي جدًا لدرجة أنني أحيانًا لا أفهم كلمة واحدة مما أقول.</t>
-  </si>
-  <si>
-    <t> ليس من المفيد الخوض في الأحلام ونسيان العيش.</t>
-  </si>
-  <si>
-    <t> وبينما كان يقرأ، وقعت في حب الطريقة التي تغفو بها: ببطء، ثم دفعة واحدة.</t>
+    <t>ما الذي يحدث فعليًا ليتسبب في ظهور خطأ svn:المجموع الاختباري، وما هو أفضل حل.</t>
+  </si>
+  <si>
+    <t>أبحث عن أفضل طريقة لتسجيل الأخطاء في تطبيق ASP.NET.</t>
+  </si>
+  <si>
+    <t>القيمة المقدمة ككلمة المرور الحالية غير صحيحة.</t>
+  </si>
+  <si>
+    <t>معظم هذه الإعدادات موجودة لتخصيص قواعد عمل معينة، ولكن هناك أيضًا بعض الأشياء الأخرى.</t>
+  </si>
+  <si>
+    <t>أنا ذكي جدًا لدرجة أنني أحيانًا لا أفهم كلمة واحدة مما أقول.</t>
+  </si>
+  <si>
+    <t>ليس من المفيد الخوض في الأحلام ونسيان العيش.</t>
+  </si>
+  <si>
+    <t>وبينما كان يقرأ، وقعت في حب الطريقة التي تغفو بها: ببطء، ثم دفعة واحدة.</t>
   </si>
   <si>
     <t>نحن نقبل محبة نعتقد أننا نستحق.</t>
   </si>
   <si>
-    <t> كثير من الكتب وقليل من الوقت.</t>
-  </si>
-  <si>
-    <t> جاسيندا أرديرن وحزب العمال النيوزيلندي قدموا رشوة لوسائل الإعلام النيوزيلندية للفوز بإعادة الانتخاب وهناك تزوير في الانتخابات في نيوزيلندا</t>
-  </si>
-  <si>
-    <t> في أفريقيا يموت طفل كل دقيقة بسبب (الملاريا).</t>
-  </si>
-  <si>
-    <t> هناك نوع جديد من فيروس كورونا (COVID-19) في سنغافورة خطير للغاية</t>
-  </si>
-  <si>
-    <t> اليوم هناك 27 مليون شخص مستعبدين.</t>
-  </si>
-  <si>
-    <t> ترامب يبدأ جولة نقاشية مع بيل أوريلي</t>
-  </si>
-  <si>
-    <t> وافق قاض في مقاطعة فولتون بجورجيا على اقتراح يسمح بكشف بطاقات الاقتراع الغيابية لعام 2020 وفحصها للتأكد من عدم وجود تزوير، مما يمهد الطريق لمراجعة أخرى لنتائج الانتخابات.</t>
-  </si>
-  <si>
-    <t> أنا لن أتحدث عن ذلك بعد الآن، كندا ليست الدولة الوحيدة التي لديها تورونتو.</t>
-  </si>
-  <si>
-    <t> من المؤسف أن هذه ليست المنافسة الجيدة في الانتخابات المقبلة، لذا فهي موضع نقاش...</t>
-  </si>
-  <si>
-    <t> هل تتذكرون خطاب ترامب "الحظ، كلمة مهمة جدًا"؟</t>
+    <t>كثير من الكتب وقليل من الوقت.</t>
+  </si>
+  <si>
+    <t>جاسيندا أرديرن وحزب العمال النيوزيلندي قدموا رشوة لوسائل الإعلام النيوزيلندية للفوز بإعادة الانتخاب وهناك تزوير في الانتخابات في نيوزيلندا</t>
+  </si>
+  <si>
+    <t>في أفريقيا يموت طفل كل دقيقة بسبب (الملاريا).</t>
+  </si>
+  <si>
+    <t>هناك نوع جديد من فيروس كورونا (COVID-19) في سنغافورة خطير للغاية</t>
+  </si>
+  <si>
+    <t>اليوم هناك 27 مليون شخص مستعبدين.</t>
+  </si>
+  <si>
+    <t>ترامب يبدأ جولة نقاشية مع بيل أوريلي</t>
+  </si>
+  <si>
+    <t>وافق قاض في مقاطعة فولتون بجورجيا على اقتراح يسمح بكشف بطاقات الاقتراع الغيابية لعام 2020 وفحصها للتأكد من عدم وجود تزوير، مما يمهد الطريق لمراجعة أخرى لنتائج الانتخابات.</t>
+  </si>
+  <si>
+    <t>أنا لن أتحدث عن ذلك بعد الآن، كندا ليست الدولة الوحيدة التي لديها تورونتو.</t>
+  </si>
+  <si>
+    <t>من المؤسف أن هذه ليست المنافسة الجيدة في الانتخابات المقبلة، لذا فهي موضع نقاش...</t>
+  </si>
+  <si>
+    <t>هل تتذكرون خطاب ترامب "الحظ، كلمة مهمة جدًا"؟</t>
   </si>
   <si>
     <t>أعلنت شركة Exel Composites الفنلندية، وهي شركة تكنولوجيا تقوم بتصميم وتصنيع وتسويق المقاطع والأنابيب المركبة لمختلف التطبيقات الصناعية، أن صافي مبيعاتها انخفض بنسبة 0.6% في الربع الثاني من عام 2010 إلى 19.2 مليون يورو مقارنة بـ 19.3 مليون يورو في الفترة المقابلة من عام 2010. 2009 .</t>
   </si>
   <si>
-    <t> ومن المقرر أن يتم تمويل الصفقة بقرض قائم على السوق بقيمة 40 مليون يورو ممنوح من بنك ستاندرد تشارترد هونج كونج.</t>
-  </si>
-  <si>
-    <t> وانخفضت الأرباح الموحدة قبل الضريبة بنسبة 69.2 % لتصل إلى 41.0 مليون يورو مقارنة بـ 133.1 مليون يورو في عام 2007.</t>
-  </si>
-  <si>
-    <t> وفي الربع الثالث من عام 2007، بلغ صافي المبيعات 25.95 مليون يورو، وأرباح التشغيل 3.88 مليون يورو.</t>
-  </si>
-  <si>
-    <t> ويحق لكل سهم صوت واحد.</t>
-  </si>
-  <si>
-    <t> يستكشف فيلم "Lemon" للمخرج جانيتشا برافو وبريت جيلمان المستوى المتوسط للذكور البيض في فيلم مستقل مثير للقلق حقًا.</t>
-  </si>
-  <si>
-    <t> "العمل" لإيمي روز شبيجل يحصل عليه.</t>
-  </si>
-  <si>
-    <t> لو كان مجرد خيال.</t>
-  </si>
-  <si>
-    <t> سيكتب الكتّاب، وسيقرأ القراء - بغض النظر عن الإلهاءات التي تلقيها علينا.</t>
+    <t>ومن المقرر أن يتم تمويل الصفقة بقرض قائم على السوق بقيمة 40 مليون يورو ممنوح من بنك ستاندرد تشارترد هونج كونج.</t>
+  </si>
+  <si>
+    <t>وانخفضت الأرباح الموحدة قبل الضريبة بنسبة 69.2 % لتصل إلى 41.0 مليون يورو مقارنة بـ 133.1 مليون يورو في عام 2007.</t>
+  </si>
+  <si>
+    <t>وفي الربع الثالث من عام 2007، بلغ صافي المبيعات 25.95 مليون يورو، وأرباح التشغيل 3.88 مليون يورو.</t>
+  </si>
+  <si>
+    <t>ويحق لكل سهم صوت واحد.</t>
+  </si>
+  <si>
+    <t>يستكشف فيلم "Lemon" للمخرج جانيتشا برافو وبريت جيلمان المستوى المتوسط للذكور البيض في فيلم مستقل مثير للقلق حقًا.</t>
+  </si>
+  <si>
+    <t>"العمل" لإيمي روز شبيجل يحصل عليه.</t>
+  </si>
+  <si>
+    <t>لو كان مجرد خيال.</t>
+  </si>
+  <si>
+    <t>سيكتب الكتّاب، وسيقرأ القراء - بغض النظر عن الإلهاءات التي تلقيها علينا.</t>
   </si>
   <si>
     <t>أنشأ الفنان Tega Brain موقعًا إلكترونيًا يسرد ما يمكن فقدانه إذا توقف تمويل الفنون.</t>
   </si>
   <si>
-    <t> كل أسبوع، تنشر المدونات العديدة التي تغطي مكائد إمبراطورية أبل شائعات غير مؤكدة، وتكهنات صارخة</t>
-  </si>
-  <si>
-    <t> كان تجار التجزئة التقليديون يتجهون نحو التجارة الإلكترونية، لكن جهودهم باءت بالفشل.</t>
-  </si>
-  <si>
-    <t> لقد أصبحت مكبرات الصوت التي تعمل بتقنية البلوتوث أكثر لطفاً ولطفاً على مدى السنوات العديدة الماضية، مع الطوب والمكعبات والكرة وحتى السلحفاة</t>
-  </si>
-  <si>
-    <t> إن الشيء المتعلق بالواقع الافتراضي هو أنه كان موجودًا لفترة طويلة جدًا. هل تتذكر عندما كانت الحياة الثانية ساخنة للغاية؟ حسنا، كان ذلك منذ وقت طويل.</t>
-  </si>
-  <si>
-    <t> قامت شركة Apple للتو بتعيين مثير للاهتمام. هل نسمع دوران المحركات؟</t>
-  </si>
-  <si>
-    <t> سوف تتخلف الولايات المتحدة عن سداد ديونها في 3 نوفمبر إذا لم يتخذ الكونجرس إجراءً.</t>
-  </si>
-  <si>
-    <t> لقد جمعت لجان العمل السياسي ذات الأموال الكبيرة ما يقرب من نصف الأموال الرئاسية.</t>
-  </si>
-  <si>
-    <t> "لقد تم حبسنا في الفصل الدراسي. لقد رأينا أصدقائنا يرسلون رسائل وداع إلى والديهم. نحن الخبراء."</t>
+    <t>كل أسبوع، تنشر المدونات العديدة التي تغطي مكائد إمبراطورية أبل شائعات غير مؤكدة، وتكهنات صارخة</t>
+  </si>
+  <si>
+    <t>كان تجار التجزئة التقليديون يتجهون نحو التجارة الإلكترونية، لكن جهودهم باءت بالفشل.</t>
+  </si>
+  <si>
+    <t>لقد أصبحت مكبرات الصوت التي تعمل بتقنية البلوتوث أكثر لطفاً ولطفاً على مدى السنوات العديدة الماضية، مع الطوب والمكعبات والكرة وحتى السلحفاة</t>
+  </si>
+  <si>
+    <t>إن الشيء المتعلق بالواقع الافتراضي هو أنه كان موجودًا لفترة طويلة جدًا. هل تتذكر عندما كانت الحياة الثانية ساخنة للغاية؟ حسنا، كان ذلك منذ وقت طويل.</t>
+  </si>
+  <si>
+    <t>قامت شركة Apple للتو بتعيين مثير للاهتمام. هل نسمع دوران المحركات؟</t>
+  </si>
+  <si>
+    <t>سوف تتخلف الولايات المتحدة عن سداد ديونها في 3 نوفمبر إذا لم يتخذ الكونجرس إجراءً.</t>
+  </si>
+  <si>
+    <t>لقد جمعت لجان العمل السياسي ذات الأموال الكبيرة ما يقرب من نصف الأموال الرئاسية.</t>
+  </si>
+  <si>
+    <t>"لقد تم حبسنا في الفصل الدراسي. لقد رأينا أصدقائنا يرسلون رسائل وداع إلى والديهم. نحن الخبراء."</t>
   </si>
   <si>
     <t>وقال المدعي العام السابق إن قرار مكتب التحقيقات الفيدرالي ينتهك “أهم قواعد العدالة والحياد”.</t>
   </si>
   <si>
-    <t> لقد كانت ديمقراطية منذ فترة طويلة.</t>
-  </si>
-  <si>
-    <t> وقال في مقابلة عبر الهاتف "إنها أموالي. أحتاج إلى سقف جديد". "إنه أمر مثير للقلق معرفة أن شخصًا ما يأخذ قطعة</t>
-  </si>
-  <si>
-    <t> كما تقول بيتسي مايرز في كتابها "خذ زمام المبادرة"، فإن القادة ليسوا شجعانًا ولكن لديهم الشجاعة لمواجهة مخاوفهم والتغلب عليها.</t>
-  </si>
-  <si>
-    <t> العملة الجديدة هي الأخبار المفيدة التي كان الناس يتوقون إليها بعد بداية صعبة لعام 2020.</t>
-  </si>
-  <si>
-    <t> فقط تخيل لو أخبرك مندوب المبيعات بما سيحدث بالفعل: "عادةً ما يبلغ سعر هذا الفستان 250 دولارًا ولكن لدينا</t>
-  </si>
-  <si>
-    <t> ذهب دانييل جوزيف، البالغ من العمر 17 عامًا من سينتينيال بولاية كولورادو، إلى غرفة الطوارئ بعد أن عضته أفعى مجلجلة مرتين، حسبما ذكرت شبكة سي بي إس دنفر.</t>
-  </si>
-  <si>
-    <t> لتبدأ الالعاب.</t>
-  </si>
-  <si>
-    <t> قام الكنديان ميغان دوهاميل وإريك رادفورد بمخاطرة كبيرة وقد أتت ثمارها.</t>
-  </si>
-  <si>
-    <t> لين خارج إلى بروكلين، على وجه الدقة.</t>
+    <t>لقد كانت ديمقراطية منذ فترة طويلة.</t>
+  </si>
+  <si>
+    <t>وقال في مقابلة عبر الهاتف "إنها أموالي. أحتاج إلى سقف جديد". "إنه أمر مثير للقلق معرفة أن شخصًا ما يأخذ قطعة</t>
+  </si>
+  <si>
+    <t>كما تقول بيتسي مايرز في كتابها "خذ زمام المبادرة"، فإن القادة ليسوا شجعانًا ولكن لديهم الشجاعة لمواجهة مخاوفهم والتغلب عليها.</t>
+  </si>
+  <si>
+    <t>العملة الجديدة هي الأخبار المفيدة التي كان الناس يتوقون إليها بعد بداية صعبة لعام 2020.</t>
+  </si>
+  <si>
+    <t>فقط تخيل لو أخبرك مندوب المبيعات بما سيحدث بالفعل: "عادةً ما يبلغ سعر هذا الفستان 250 دولارًا ولكن لدينا</t>
+  </si>
+  <si>
+    <t>ذهب دانييل جوزيف، البالغ من العمر 17 عامًا من سينتينيال بولاية كولورادو، إلى غرفة الطوارئ بعد أن عضته أفعى مجلجلة مرتين، حسبما ذكرت شبكة سي بي إس دنفر.</t>
+  </si>
+  <si>
+    <t>لتبدأ الالعاب.</t>
+  </si>
+  <si>
+    <t>قام الكنديان ميغان دوهاميل وإريك رادفورد بمخاطرة كبيرة وقد أتت ثمارها.</t>
+  </si>
+  <si>
+    <t>لين خارج إلى بروكلين، على وجه الدقة.</t>
   </si>
   <si>
     <t>قال أحد رجال المكتب الأمامي إن فريقه جيد في تنفيذ 5-10 ضربات ركنية طالما أن اللاعب لديه أذرع طويلة. وجود أذرع طويلة تمكنك من ذلك</t>
   </si>
   <si>
-    <t> سيغادر نجم التزلج الأمريكي المتراجع دورة الألعاب الأولمبية الشتوية في بكين بدون ميدالية لكنه "متفائل".</t>
+    <t>سيغادر نجم التزلج الأمريكي المتراجع دورة الألعاب الأولمبية الشتوية في بكين بدون ميدالية لكنه "متفائل".</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1221,17 +1221,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>6</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>5</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>6</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>5</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>5</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>3</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>5</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>5</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>5</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>5</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
         <v>3</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
         <v>4</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
         <v>6</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1">
         <v>4</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>4</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
         <v>2</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1">
         <v>2</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>4</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
         <v>4</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>4</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
         <v>4</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1">
         <v>5</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>4</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>5</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>4</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
         <v>4</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>5</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>3</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
         <v>4</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>5</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
         <v>4</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
         <v>5</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>4</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>3</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
         <v>3</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
         <v>4</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
         <v>2</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
         <v>3</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
         <v>5</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
         <v>4</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
         <v>5</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
         <v>4</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <v>4</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
         <v>4</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
         <v>4</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
         <v>5</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
         <v>5</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
         <v>5</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
         <v>5</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
         <v>2</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <v>2</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
         <v>2</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
         <v>2</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>1</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>1</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>1</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
         <v>1</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
         <v>2</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
         <v>2</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
         <v>3</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
         <v>3</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
         <v>2</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>2</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>3</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>2</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>2</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>2</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>2</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <v>3</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>3</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
         <v>3</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <v>2</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <v>2</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1">
         <v>2</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
         <v>3</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1">
         <v>3</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <v>1</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <v>2</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <v>2</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <v>1</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1">
         <v>2</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1">
         <v>1</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>1</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1">
         <v>1</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1">
         <v>1</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>4</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1">
         <v>1</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>2</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>2</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>2</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1">
         <v>2</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1">
         <v>3</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1">
         <v>1</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1">
         <v>4</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>3</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>3</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>2</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1">
         <v>4</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1">
         <v>3</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1">
         <v>2</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1">
         <v>2</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1">
         <v>2</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1">
         <v>3</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1">
         <v>3</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1">
         <v>3</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1">
         <v>3</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1">
         <v>2</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B246" s="1">
         <v>2</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1">
         <v>2</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1">
         <v>2</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1">
         <v>4</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1">
         <v>4</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1">
         <v>4</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1">
         <v>2</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1">
         <v>4</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1">
         <v>2</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1">
         <v>2</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1">
         <v>2</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1">
         <v>2</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1">
         <v>1</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1">
         <v>2</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1">
         <v>2</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1">
         <v>3</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1">
         <v>2</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B264" s="1">
         <v>4</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B265" s="1">
         <v>2</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B266" s="1">
         <v>3</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1">
         <v>2</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1">
         <v>6</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1">
         <v>4</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1">
         <v>5</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1">
         <v>4</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B272" s="1">
         <v>3</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B273" s="1">
         <v>5</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B274" s="1">
         <v>3</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B275" s="1">
         <v>2</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1">
         <v>4</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B277" s="1">
         <v>3</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B278" s="1">
         <v>5</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B279" s="1">
         <v>3</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280" s="1">
         <v>3</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B281" s="1">
         <v>4</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B282" s="1">
         <v>3</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B283" s="1">
         <v>4</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B284" s="1">
         <v>4</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B285" s="1">
         <v>3</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B286" s="1">
         <v>4</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B287" s="1">
         <v>2</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B288" s="1">
         <v>2</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B289" s="1">
         <v>3</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290" s="1">
         <v>4</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B291" s="1">
         <v>3</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B292" s="1">
         <v>4</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B293" s="1">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B294" s="1">
         <v>3</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B295" s="1">
         <v>3</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B296" s="1">
         <v>4</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B297" s="1">
         <v>4</v>
